--- a/data/raw/election/voters-age-sex-education/2023/Ordu.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Ordu.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:55:13-51792349140" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="48">
   <si>
     <t>Ordu</t>
   </si>
@@ -158,6 +157,12 @@
   </si>
   <si>
     <t>Ünye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -691,7 +696,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -705,16 +710,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1039,10 +1053,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N498"/>
+  <dimension ref="A1:N500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="A499" sqref="A499:A500"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,24 +1072,24 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1176,7 +1190,7 @@
         <v>4</v>
       </c>
       <c r="M6" s="5">
-        <v>1.0149999999999999</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1214,7 +1228,7 @@
       <c r="L7" s="4">
         <v>1</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="6">
         <v>918</v>
       </c>
     </row>
@@ -1255,7 +1269,7 @@
       <c r="L8" s="4">
         <v>4</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="6">
         <v>600</v>
       </c>
     </row>
@@ -1294,7 +1308,7 @@
       <c r="L9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="6">
         <v>442</v>
       </c>
     </row>
@@ -1335,7 +1349,7 @@
       <c r="L10" s="4">
         <v>2</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="6">
         <v>510</v>
       </c>
     </row>
@@ -1374,7 +1388,7 @@
       <c r="L11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="6">
         <v>422</v>
       </c>
     </row>
@@ -1415,7 +1429,7 @@
       <c r="L12" s="4">
         <v>5</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="6">
         <v>560</v>
       </c>
     </row>
@@ -1454,7 +1468,7 @@
       <c r="L13" s="4">
         <v>3</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="6">
         <v>399</v>
       </c>
     </row>
@@ -1495,7 +1509,7 @@
       <c r="L14" s="4">
         <v>2</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="6">
         <v>673</v>
       </c>
     </row>
@@ -1534,7 +1548,7 @@
       <c r="L15" s="4">
         <v>3</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="6">
         <v>527</v>
       </c>
     </row>
@@ -1575,7 +1589,7 @@
       <c r="L16" s="4">
         <v>5</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="6">
         <v>661</v>
       </c>
     </row>
@@ -1614,7 +1628,7 @@
       <c r="L17" s="4">
         <v>2</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="6">
         <v>533</v>
       </c>
     </row>
@@ -1655,7 +1669,7 @@
       <c r="L18" s="4">
         <v>2</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="6">
         <v>716</v>
       </c>
     </row>
@@ -1694,7 +1708,7 @@
       <c r="L19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="6">
         <v>639</v>
       </c>
     </row>
@@ -1735,7 +1749,7 @@
       <c r="L20" s="4">
         <v>6</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="6">
         <v>890</v>
       </c>
     </row>
@@ -1774,7 +1788,7 @@
       <c r="L21" s="4">
         <v>6</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="6">
         <v>762</v>
       </c>
     </row>
@@ -1815,7 +1829,7 @@
       <c r="L22" s="4">
         <v>3</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="6">
         <v>906</v>
       </c>
     </row>
@@ -1854,7 +1868,7 @@
       <c r="L23" s="4">
         <v>6</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="6">
         <v>853</v>
       </c>
     </row>
@@ -1895,7 +1909,7 @@
       <c r="L24" s="4">
         <v>3</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="6">
         <v>937</v>
       </c>
     </row>
@@ -1934,7 +1948,7 @@
       <c r="L25" s="4">
         <v>5</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="6">
         <v>943</v>
       </c>
     </row>
@@ -1975,7 +1989,7 @@
       <c r="L26" s="4">
         <v>3</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="6">
         <v>668</v>
       </c>
     </row>
@@ -2014,7 +2028,7 @@
       <c r="L27" s="4">
         <v>2</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="6">
         <v>800</v>
       </c>
     </row>
@@ -2055,7 +2069,7 @@
       <c r="L28" s="4">
         <v>3</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="6">
         <v>933</v>
       </c>
     </row>
@@ -2095,46 +2109,46 @@
         <v>9</v>
       </c>
       <c r="M29" s="5">
-        <v>1.296</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="5">
-        <v>2.0659999999999998</v>
+        <v>2066</v>
       </c>
       <c r="D30" s="5">
-        <v>2.2109999999999999</v>
+        <v>2211</v>
       </c>
       <c r="E30" s="5">
-        <v>5.548</v>
+        <v>5548</v>
       </c>
       <c r="F30" s="5">
-        <v>1.474</v>
+        <v>1474</v>
       </c>
       <c r="G30" s="5">
-        <v>2.1059999999999999</v>
+        <v>2106</v>
       </c>
       <c r="H30" s="5">
-        <v>2.8109999999999999</v>
+        <v>2811</v>
       </c>
       <c r="I30" s="5">
-        <v>1.2210000000000001</v>
-      </c>
-      <c r="J30" s="5">
+        <v>1221</v>
+      </c>
+      <c r="J30" s="6">
         <v>74</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="6">
         <v>13</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="6">
         <v>79</v>
       </c>
       <c r="M30" s="5">
-        <v>17.603000000000002</v>
+        <v>17603</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -2195,14 +2209,14 @@
       <c r="F32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="4">
-        <v>1.758</v>
-      </c>
-      <c r="H32" s="4">
-        <v>7.327</v>
-      </c>
-      <c r="I32" s="4">
-        <v>1.516</v>
+      <c r="G32" s="9">
+        <v>1758</v>
+      </c>
+      <c r="H32" s="9">
+        <v>7327</v>
+      </c>
+      <c r="I32" s="9">
+        <v>1516</v>
       </c>
       <c r="J32" s="4">
         <v>15</v>
@@ -2214,7 +2228,7 @@
         <v>79</v>
       </c>
       <c r="M32" s="5">
-        <v>10.715999999999999</v>
+        <v>10716</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2234,14 +2248,14 @@
       <c r="F33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="4">
-        <v>1.3720000000000001</v>
-      </c>
-      <c r="H33" s="4">
-        <v>7.2720000000000002</v>
-      </c>
-      <c r="I33" s="4">
-        <v>2.4260000000000002</v>
+      <c r="G33" s="9">
+        <v>1372</v>
+      </c>
+      <c r="H33" s="9">
+        <v>7272</v>
+      </c>
+      <c r="I33" s="9">
+        <v>2426</v>
       </c>
       <c r="J33" s="4">
         <v>24</v>
@@ -2253,7 +2267,7 @@
         <v>30</v>
       </c>
       <c r="M33" s="5">
-        <v>11.157999999999999</v>
+        <v>11158</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2275,14 +2289,14 @@
       <c r="F34" s="4">
         <v>13</v>
       </c>
-      <c r="G34" s="4">
-        <v>1.39</v>
-      </c>
-      <c r="H34" s="4">
-        <v>2.6859999999999999</v>
-      </c>
-      <c r="I34" s="4">
-        <v>3.0830000000000002</v>
+      <c r="G34" s="9">
+        <v>1390</v>
+      </c>
+      <c r="H34" s="9">
+        <v>2686</v>
+      </c>
+      <c r="I34" s="9">
+        <v>3083</v>
       </c>
       <c r="J34" s="4">
         <v>268</v>
@@ -2294,7 +2308,7 @@
         <v>46</v>
       </c>
       <c r="M34" s="5">
-        <v>7.5110000000000001</v>
+        <v>7511</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2314,14 +2328,14 @@
       <c r="F35" s="4">
         <v>31</v>
       </c>
-      <c r="G35" s="4">
-        <v>1.369</v>
-      </c>
-      <c r="H35" s="4">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="I35" s="4">
-        <v>4.5990000000000002</v>
+      <c r="G35" s="9">
+        <v>1369</v>
+      </c>
+      <c r="H35" s="9">
+        <v>2070</v>
+      </c>
+      <c r="I35" s="9">
+        <v>4599</v>
       </c>
       <c r="J35" s="4">
         <v>396</v>
@@ -2333,7 +2347,7 @@
         <v>35</v>
       </c>
       <c r="M35" s="5">
-        <v>8.57</v>
+        <v>8570</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2358,11 +2372,11 @@
       <c r="G36" s="4">
         <v>585</v>
       </c>
-      <c r="H36" s="4">
-        <v>2.8570000000000002</v>
-      </c>
-      <c r="I36" s="4">
-        <v>2.9340000000000002</v>
+      <c r="H36" s="9">
+        <v>2857</v>
+      </c>
+      <c r="I36" s="9">
+        <v>2934</v>
       </c>
       <c r="J36" s="4">
         <v>353</v>
@@ -2374,7 +2388,7 @@
         <v>39</v>
       </c>
       <c r="M36" s="5">
-        <v>7.7939999999999996</v>
+        <v>7794</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2391,17 +2405,17 @@
       <c r="E37" s="4">
         <v>58</v>
       </c>
-      <c r="F37" s="4">
-        <v>1.056</v>
+      <c r="F37" s="9">
+        <v>1056</v>
       </c>
       <c r="G37" s="4">
         <v>666</v>
       </c>
-      <c r="H37" s="4">
-        <v>2.5550000000000002</v>
-      </c>
-      <c r="I37" s="4">
-        <v>3.653</v>
+      <c r="H37" s="9">
+        <v>2555</v>
+      </c>
+      <c r="I37" s="9">
+        <v>3653</v>
       </c>
       <c r="J37" s="4">
         <v>465</v>
@@ -2413,7 +2427,7 @@
         <v>43</v>
       </c>
       <c r="M37" s="5">
-        <v>8.5760000000000005</v>
+        <v>8576</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2438,11 +2452,11 @@
       <c r="G38" s="4">
         <v>606</v>
       </c>
-      <c r="H38" s="4">
-        <v>3.2749999999999999</v>
-      </c>
-      <c r="I38" s="4">
-        <v>2.5990000000000002</v>
+      <c r="H38" s="9">
+        <v>3275</v>
+      </c>
+      <c r="I38" s="9">
+        <v>2599</v>
       </c>
       <c r="J38" s="4">
         <v>446</v>
@@ -2454,7 +2468,7 @@
         <v>48</v>
       </c>
       <c r="M38" s="5">
-        <v>8.3680000000000003</v>
+        <v>8368</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2471,17 +2485,17 @@
       <c r="E39" s="4">
         <v>709</v>
       </c>
-      <c r="F39" s="4">
-        <v>1.129</v>
+      <c r="F39" s="9">
+        <v>1129</v>
       </c>
       <c r="G39" s="4">
         <v>851</v>
       </c>
-      <c r="H39" s="4">
-        <v>3.2429999999999999</v>
-      </c>
-      <c r="I39" s="4">
-        <v>2.7669999999999999</v>
+      <c r="H39" s="9">
+        <v>3243</v>
+      </c>
+      <c r="I39" s="9">
+        <v>2767</v>
       </c>
       <c r="J39" s="4">
         <v>408</v>
@@ -2493,7 +2507,7 @@
         <v>45</v>
       </c>
       <c r="M39" s="5">
-        <v>9.2680000000000007</v>
+        <v>9268</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2515,14 +2529,14 @@
       <c r="F40" s="4">
         <v>918</v>
       </c>
-      <c r="G40" s="4">
-        <v>1.36</v>
-      </c>
-      <c r="H40" s="4">
-        <v>3.4689999999999999</v>
-      </c>
-      <c r="I40" s="4">
-        <v>2.1720000000000002</v>
+      <c r="G40" s="9">
+        <v>1360</v>
+      </c>
+      <c r="H40" s="9">
+        <v>3469</v>
+      </c>
+      <c r="I40" s="9">
+        <v>2172</v>
       </c>
       <c r="J40" s="4">
         <v>378</v>
@@ -2534,7 +2548,7 @@
         <v>63</v>
       </c>
       <c r="M40" s="5">
-        <v>9.1289999999999996</v>
+        <v>9129</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2548,20 +2562,20 @@
       <c r="D41" s="4">
         <v>19</v>
       </c>
-      <c r="E41" s="4">
-        <v>1.407</v>
+      <c r="E41" s="9">
+        <v>1407</v>
       </c>
       <c r="F41" s="4">
         <v>963</v>
       </c>
-      <c r="G41" s="4">
-        <v>1.498</v>
-      </c>
-      <c r="H41" s="4">
-        <v>3.3090000000000002</v>
-      </c>
-      <c r="I41" s="4">
-        <v>2.262</v>
+      <c r="G41" s="9">
+        <v>1498</v>
+      </c>
+      <c r="H41" s="9">
+        <v>3309</v>
+      </c>
+      <c r="I41" s="9">
+        <v>2262</v>
       </c>
       <c r="J41" s="4">
         <v>303</v>
@@ -2573,7 +2587,7 @@
         <v>50</v>
       </c>
       <c r="M41" s="5">
-        <v>9.9019999999999992</v>
+        <v>9902</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2595,14 +2609,14 @@
       <c r="F42" s="4">
         <v>983</v>
       </c>
-      <c r="G42" s="4">
-        <v>1.2270000000000001</v>
-      </c>
-      <c r="H42" s="4">
-        <v>2.794</v>
-      </c>
-      <c r="I42" s="4">
-        <v>1.8859999999999999</v>
+      <c r="G42" s="9">
+        <v>1227</v>
+      </c>
+      <c r="H42" s="9">
+        <v>2794</v>
+      </c>
+      <c r="I42" s="9">
+        <v>1886</v>
       </c>
       <c r="J42" s="4">
         <v>263</v>
@@ -2614,7 +2628,7 @@
         <v>67</v>
       </c>
       <c r="M42" s="5">
-        <v>8.1199999999999992</v>
+        <v>8120</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2628,20 +2642,20 @@
       <c r="D43" s="4">
         <v>22</v>
       </c>
-      <c r="E43" s="4">
-        <v>1.5960000000000001</v>
+      <c r="E43" s="9">
+        <v>1596</v>
       </c>
       <c r="F43" s="4">
         <v>971</v>
       </c>
-      <c r="G43" s="4">
-        <v>1.419</v>
-      </c>
-      <c r="H43" s="4">
-        <v>2.677</v>
-      </c>
-      <c r="I43" s="4">
-        <v>1.601</v>
+      <c r="G43" s="9">
+        <v>1419</v>
+      </c>
+      <c r="H43" s="9">
+        <v>2677</v>
+      </c>
+      <c r="I43" s="9">
+        <v>1601</v>
       </c>
       <c r="J43" s="4">
         <v>175</v>
@@ -2653,7 +2667,7 @@
         <v>50</v>
       </c>
       <c r="M43" s="5">
-        <v>8.5939999999999994</v>
+        <v>8594</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2672,17 +2686,17 @@
       <c r="E44" s="4">
         <v>959</v>
       </c>
-      <c r="F44" s="4">
-        <v>1.0089999999999999</v>
-      </c>
-      <c r="G44" s="4">
-        <v>1.3939999999999999</v>
-      </c>
-      <c r="H44" s="4">
-        <v>2.238</v>
-      </c>
-      <c r="I44" s="4">
-        <v>1.663</v>
+      <c r="F44" s="9">
+        <v>1009</v>
+      </c>
+      <c r="G44" s="9">
+        <v>1394</v>
+      </c>
+      <c r="H44" s="9">
+        <v>2238</v>
+      </c>
+      <c r="I44" s="9">
+        <v>1663</v>
       </c>
       <c r="J44" s="4">
         <v>221</v>
@@ -2694,7 +2708,7 @@
         <v>90</v>
       </c>
       <c r="M44" s="5">
-        <v>7.6719999999999997</v>
+        <v>7672</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2708,17 +2722,17 @@
       <c r="D45" s="4">
         <v>62</v>
       </c>
-      <c r="E45" s="4">
-        <v>2.0099999999999998</v>
+      <c r="E45" s="9">
+        <v>2010</v>
       </c>
       <c r="F45" s="4">
         <v>904</v>
       </c>
-      <c r="G45" s="4">
-        <v>1.3009999999999999</v>
-      </c>
-      <c r="H45" s="4">
-        <v>2.1139999999999999</v>
+      <c r="G45" s="9">
+        <v>1301</v>
+      </c>
+      <c r="H45" s="9">
+        <v>2114</v>
       </c>
       <c r="I45" s="4">
         <v>992</v>
@@ -2733,7 +2747,7 @@
         <v>95</v>
       </c>
       <c r="M45" s="5">
-        <v>7.6559999999999997</v>
+        <v>7656</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2749,20 +2763,20 @@
       <c r="D46" s="4">
         <v>23</v>
       </c>
-      <c r="E46" s="4">
-        <v>1.323</v>
+      <c r="E46" s="9">
+        <v>1323</v>
       </c>
       <c r="F46" s="4">
         <v>826</v>
       </c>
-      <c r="G46" s="4">
-        <v>1.23</v>
-      </c>
-      <c r="H46" s="4">
-        <v>2.2469999999999999</v>
-      </c>
-      <c r="I46" s="4">
-        <v>1.2090000000000001</v>
+      <c r="G46" s="9">
+        <v>1230</v>
+      </c>
+      <c r="H46" s="9">
+        <v>2247</v>
+      </c>
+      <c r="I46" s="9">
+        <v>1209</v>
       </c>
       <c r="J46" s="4">
         <v>133</v>
@@ -2774,7 +2788,7 @@
         <v>129</v>
       </c>
       <c r="M46" s="5">
-        <v>7.1989999999999998</v>
+        <v>7199</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2788,8 +2802,8 @@
       <c r="D47" s="4">
         <v>183</v>
       </c>
-      <c r="E47" s="4">
-        <v>2.6520000000000001</v>
+      <c r="E47" s="9">
+        <v>2652</v>
       </c>
       <c r="F47" s="4">
         <v>678</v>
@@ -2797,8 +2811,8 @@
       <c r="G47" s="4">
         <v>939</v>
       </c>
-      <c r="H47" s="4">
-        <v>1.7210000000000001</v>
+      <c r="H47" s="9">
+        <v>1721</v>
       </c>
       <c r="I47" s="4">
         <v>667</v>
@@ -2813,7 +2827,7 @@
         <v>135</v>
       </c>
       <c r="M47" s="5">
-        <v>7.1740000000000004</v>
+        <v>7174</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2829,8 +2843,8 @@
       <c r="D48" s="4">
         <v>57</v>
       </c>
-      <c r="E48" s="4">
-        <v>1.629</v>
+      <c r="E48" s="9">
+        <v>1629</v>
       </c>
       <c r="F48" s="4">
         <v>482</v>
@@ -2838,8 +2852,8 @@
       <c r="G48" s="4">
         <v>753</v>
       </c>
-      <c r="H48" s="4">
-        <v>1.75</v>
+      <c r="H48" s="9">
+        <v>1750</v>
       </c>
       <c r="I48" s="4">
         <v>933</v>
@@ -2854,7 +2868,7 @@
         <v>125</v>
       </c>
       <c r="M48" s="5">
-        <v>5.8520000000000003</v>
+        <v>5852</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2868,8 +2882,8 @@
       <c r="D49" s="4">
         <v>343</v>
       </c>
-      <c r="E49" s="4">
-        <v>2.7149999999999999</v>
+      <c r="E49" s="9">
+        <v>2715</v>
       </c>
       <c r="F49" s="4">
         <v>291</v>
@@ -2877,8 +2891,8 @@
       <c r="G49" s="4">
         <v>502</v>
       </c>
-      <c r="H49" s="4">
-        <v>1.171</v>
+      <c r="H49" s="9">
+        <v>1171</v>
       </c>
       <c r="I49" s="4">
         <v>475</v>
@@ -2893,7 +2907,7 @@
         <v>118</v>
       </c>
       <c r="M49" s="5">
-        <v>5.92</v>
+        <v>5920</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2909,8 +2923,8 @@
       <c r="D50" s="4">
         <v>70</v>
       </c>
-      <c r="E50" s="4">
-        <v>1.734</v>
+      <c r="E50" s="9">
+        <v>1734</v>
       </c>
       <c r="F50" s="4">
         <v>201</v>
@@ -2918,8 +2932,8 @@
       <c r="G50" s="4">
         <v>580</v>
       </c>
-      <c r="H50" s="4">
-        <v>1.0049999999999999</v>
+      <c r="H50" s="9">
+        <v>1005</v>
       </c>
       <c r="I50" s="4">
         <v>882</v>
@@ -2934,7 +2948,7 @@
         <v>105</v>
       </c>
       <c r="M50" s="5">
-        <v>4.6630000000000003</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2948,8 +2962,8 @@
       <c r="D51" s="4">
         <v>696</v>
       </c>
-      <c r="E51" s="4">
-        <v>2.242</v>
+      <c r="E51" s="9">
+        <v>2242</v>
       </c>
       <c r="F51" s="4">
         <v>140</v>
@@ -2973,7 +2987,7 @@
         <v>131</v>
       </c>
       <c r="M51" s="5">
-        <v>5.0659999999999998</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2989,8 +3003,8 @@
       <c r="D52" s="4">
         <v>117</v>
       </c>
-      <c r="E52" s="4">
-        <v>1.492</v>
+      <c r="E52" s="9">
+        <v>1492</v>
       </c>
       <c r="F52" s="4">
         <v>64</v>
@@ -3014,7 +3028,7 @@
         <v>62</v>
       </c>
       <c r="M52" s="5">
-        <v>3.0880000000000001</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3028,8 +3042,8 @@
       <c r="D53" s="4">
         <v>674</v>
       </c>
-      <c r="E53" s="4">
-        <v>1.276</v>
+      <c r="E53" s="9">
+        <v>1276</v>
       </c>
       <c r="F53" s="4">
         <v>25</v>
@@ -3053,7 +3067,7 @@
         <v>100</v>
       </c>
       <c r="M53" s="5">
-        <v>3.4039999999999999</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3069,8 +3083,8 @@
       <c r="D54" s="4">
         <v>506</v>
       </c>
-      <c r="E54" s="4">
-        <v>1.8009999999999999</v>
+      <c r="E54" s="9">
+        <v>1801</v>
       </c>
       <c r="F54" s="4">
         <v>20</v>
@@ -3094,7 +3108,7 @@
         <v>95</v>
       </c>
       <c r="M54" s="5">
-        <v>3.9289999999999998</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3102,14 +3116,14 @@
       <c r="B55" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="4">
-        <v>2.4319999999999999</v>
-      </c>
-      <c r="D55" s="4">
-        <v>1.369</v>
-      </c>
-      <c r="E55" s="4">
-        <v>1.3420000000000001</v>
+      <c r="C55" s="9">
+        <v>2432</v>
+      </c>
+      <c r="D55" s="9">
+        <v>1369</v>
+      </c>
+      <c r="E55" s="9">
+        <v>1342</v>
       </c>
       <c r="F55" s="4">
         <v>8</v>
@@ -3133,46 +3147,46 @@
         <v>104</v>
       </c>
       <c r="M55" s="5">
-        <v>5.7060000000000004</v>
+        <v>5706</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
+      <c r="B56" s="7"/>
       <c r="C56" s="5">
-        <v>4.7629999999999999</v>
+        <v>4763</v>
       </c>
       <c r="D56" s="5">
-        <v>4.3689999999999998</v>
+        <v>4369</v>
       </c>
       <c r="E56" s="5">
-        <v>26.736999999999998</v>
+        <v>26737</v>
       </c>
       <c r="F56" s="5">
-        <v>12.648999999999999</v>
+        <v>12649</v>
       </c>
       <c r="G56" s="5">
-        <v>22.021000000000001</v>
+        <v>22021</v>
       </c>
       <c r="H56" s="5">
-        <v>57.707999999999998</v>
+        <v>57708</v>
       </c>
       <c r="I56" s="5">
-        <v>39.883000000000003</v>
+        <v>39883</v>
       </c>
       <c r="J56" s="5">
-        <v>4.2069999999999999</v>
-      </c>
-      <c r="K56" s="5">
+        <v>4207</v>
+      </c>
+      <c r="K56" s="6">
         <v>814</v>
       </c>
       <c r="L56" s="5">
-        <v>1.8839999999999999</v>
+        <v>1884</v>
       </c>
       <c r="M56" s="5">
-        <v>175.035</v>
+        <v>175035</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3251,7 +3265,7 @@
       <c r="L58" s="4">
         <v>33</v>
       </c>
-      <c r="M58" s="5">
+      <c r="M58" s="6">
         <v>933</v>
       </c>
     </row>
@@ -3290,7 +3304,7 @@
       <c r="L59" s="4">
         <v>37</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M59" s="6">
         <v>972</v>
       </c>
     </row>
@@ -3331,7 +3345,7 @@
       <c r="L60" s="4">
         <v>20</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="6">
         <v>599</v>
       </c>
     </row>
@@ -3370,7 +3384,7 @@
       <c r="L61" s="4">
         <v>16</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="6">
         <v>625</v>
       </c>
     </row>
@@ -3411,7 +3425,7 @@
       <c r="L62" s="4">
         <v>26</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="6">
         <v>529</v>
       </c>
     </row>
@@ -3450,7 +3464,7 @@
       <c r="L63" s="4">
         <v>16</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="6">
         <v>509</v>
       </c>
     </row>
@@ -3491,7 +3505,7 @@
       <c r="L64" s="4">
         <v>19</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M64" s="6">
         <v>588</v>
       </c>
     </row>
@@ -3530,7 +3544,7 @@
       <c r="L65" s="4">
         <v>22</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="6">
         <v>490</v>
       </c>
     </row>
@@ -3571,7 +3585,7 @@
       <c r="L66" s="4">
         <v>19</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="6">
         <v>631</v>
       </c>
     </row>
@@ -3610,7 +3624,7 @@
       <c r="L67" s="4">
         <v>17</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="6">
         <v>603</v>
       </c>
     </row>
@@ -3651,7 +3665,7 @@
       <c r="L68" s="4">
         <v>22</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="6">
         <v>650</v>
       </c>
     </row>
@@ -3690,7 +3704,7 @@
       <c r="L69" s="4">
         <v>24</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="6">
         <v>581</v>
       </c>
     </row>
@@ -3731,7 +3745,7 @@
       <c r="L70" s="4">
         <v>13</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="6">
         <v>705</v>
       </c>
     </row>
@@ -3770,7 +3784,7 @@
       <c r="L71" s="4">
         <v>15</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="6">
         <v>713</v>
       </c>
     </row>
@@ -3811,7 +3825,7 @@
       <c r="L72" s="4">
         <v>14</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="6">
         <v>719</v>
       </c>
     </row>
@@ -3850,7 +3864,7 @@
       <c r="L73" s="4">
         <v>12</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="6">
         <v>747</v>
       </c>
     </row>
@@ -3891,7 +3905,7 @@
       <c r="L74" s="4">
         <v>19</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="6">
         <v>661</v>
       </c>
     </row>
@@ -3930,7 +3944,7 @@
       <c r="L75" s="4">
         <v>19</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="6">
         <v>698</v>
       </c>
     </row>
@@ -3971,7 +3985,7 @@
       <c r="L76" s="4">
         <v>17</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="6">
         <v>599</v>
       </c>
     </row>
@@ -4010,7 +4024,7 @@
       <c r="L77" s="4">
         <v>14</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="6">
         <v>722</v>
       </c>
     </row>
@@ -4051,7 +4065,7 @@
       <c r="L78" s="4">
         <v>7</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="6">
         <v>428</v>
       </c>
     </row>
@@ -4090,7 +4104,7 @@
       <c r="L79" s="4">
         <v>11</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="6">
         <v>589</v>
       </c>
     </row>
@@ -4131,7 +4145,7 @@
       <c r="L80" s="4">
         <v>6</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="6">
         <v>677</v>
       </c>
     </row>
@@ -4170,7 +4184,7 @@
       <c r="L81" s="4">
         <v>11</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="6">
         <v>965</v>
       </c>
     </row>
@@ -4178,39 +4192,39 @@
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
+      <c r="B82" s="7"/>
       <c r="C82" s="5">
-        <v>1.0049999999999999</v>
+        <v>1005</v>
       </c>
       <c r="D82" s="5">
-        <v>1.6240000000000001</v>
+        <v>1624</v>
       </c>
       <c r="E82" s="5">
-        <v>4.6449999999999996</v>
+        <v>4645</v>
       </c>
       <c r="F82" s="5">
-        <v>1.2589999999999999</v>
+        <v>1259</v>
       </c>
       <c r="G82" s="5">
-        <v>1.7270000000000001</v>
+        <v>1727</v>
       </c>
       <c r="H82" s="5">
-        <v>3.4180000000000001</v>
+        <v>3418</v>
       </c>
       <c r="I82" s="5">
-        <v>1.6639999999999999</v>
-      </c>
-      <c r="J82" s="5">
+        <v>1664</v>
+      </c>
+      <c r="J82" s="6">
         <v>155</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="6">
         <v>7</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="6">
         <v>429</v>
       </c>
       <c r="M82" s="5">
-        <v>15.933</v>
+        <v>15933</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -4289,7 +4303,7 @@
       <c r="L84" s="4">
         <v>3</v>
       </c>
-      <c r="M84" s="5">
+      <c r="M84" s="6">
         <v>326</v>
       </c>
     </row>
@@ -4328,7 +4342,7 @@
       <c r="L85" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M85" s="5">
+      <c r="M85" s="6">
         <v>286</v>
       </c>
     </row>
@@ -4369,7 +4383,7 @@
       <c r="L86" s="4">
         <v>3</v>
       </c>
-      <c r="M86" s="5">
+      <c r="M86" s="6">
         <v>235</v>
       </c>
     </row>
@@ -4408,7 +4422,7 @@
       <c r="L87" s="4">
         <v>1</v>
       </c>
-      <c r="M87" s="5">
+      <c r="M87" s="6">
         <v>164</v>
       </c>
     </row>
@@ -4449,7 +4463,7 @@
       <c r="L88" s="4">
         <v>1</v>
       </c>
-      <c r="M88" s="5">
+      <c r="M88" s="6">
         <v>190</v>
       </c>
     </row>
@@ -4488,7 +4502,7 @@
       <c r="L89" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M89" s="5">
+      <c r="M89" s="6">
         <v>146</v>
       </c>
     </row>
@@ -4529,7 +4543,7 @@
       <c r="L90" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M90" s="5">
+      <c r="M90" s="6">
         <v>222</v>
       </c>
     </row>
@@ -4568,7 +4582,7 @@
       <c r="L91" s="4">
         <v>1</v>
       </c>
-      <c r="M91" s="5">
+      <c r="M91" s="6">
         <v>146</v>
       </c>
     </row>
@@ -4609,7 +4623,7 @@
       <c r="L92" s="4">
         <v>1</v>
       </c>
-      <c r="M92" s="5">
+      <c r="M92" s="6">
         <v>247</v>
       </c>
     </row>
@@ -4648,7 +4662,7 @@
       <c r="L93" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M93" s="5">
+      <c r="M93" s="6">
         <v>191</v>
       </c>
     </row>
@@ -4689,7 +4703,7 @@
       <c r="L94" s="4">
         <v>1</v>
       </c>
-      <c r="M94" s="5">
+      <c r="M94" s="6">
         <v>314</v>
       </c>
     </row>
@@ -4728,7 +4742,7 @@
       <c r="L95" s="4">
         <v>1</v>
       </c>
-      <c r="M95" s="5">
+      <c r="M95" s="6">
         <v>268</v>
       </c>
     </row>
@@ -4769,7 +4783,7 @@
       <c r="L96" s="4">
         <v>1</v>
       </c>
-      <c r="M96" s="5">
+      <c r="M96" s="6">
         <v>352</v>
       </c>
     </row>
@@ -4808,7 +4822,7 @@
       <c r="L97" s="4">
         <v>2</v>
       </c>
-      <c r="M97" s="5">
+      <c r="M97" s="6">
         <v>320</v>
       </c>
     </row>
@@ -4849,7 +4863,7 @@
       <c r="L98" s="4">
         <v>1</v>
       </c>
-      <c r="M98" s="5">
+      <c r="M98" s="6">
         <v>467</v>
       </c>
     </row>
@@ -4888,7 +4902,7 @@
       <c r="L99" s="4">
         <v>3</v>
       </c>
-      <c r="M99" s="5">
+      <c r="M99" s="6">
         <v>449</v>
       </c>
     </row>
@@ -4929,7 +4943,7 @@
       <c r="L100" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M100" s="5">
+      <c r="M100" s="6">
         <v>425</v>
       </c>
     </row>
@@ -4968,7 +4982,7 @@
       <c r="L101" s="4">
         <v>2</v>
       </c>
-      <c r="M101" s="5">
+      <c r="M101" s="6">
         <v>399</v>
       </c>
     </row>
@@ -5009,7 +5023,7 @@
       <c r="L102" s="4">
         <v>1</v>
       </c>
-      <c r="M102" s="5">
+      <c r="M102" s="6">
         <v>330</v>
       </c>
     </row>
@@ -5048,7 +5062,7 @@
       <c r="L103" s="4">
         <v>3</v>
       </c>
-      <c r="M103" s="5">
+      <c r="M103" s="6">
         <v>378</v>
       </c>
     </row>
@@ -5089,7 +5103,7 @@
       <c r="L104" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="6">
         <v>249</v>
       </c>
     </row>
@@ -5128,7 +5142,7 @@
       <c r="L105" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="6">
         <v>316</v>
       </c>
     </row>
@@ -5169,7 +5183,7 @@
       <c r="L106" s="4">
         <v>1</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="6">
         <v>258</v>
       </c>
     </row>
@@ -5208,7 +5222,7 @@
       <c r="L107" s="4">
         <v>2</v>
       </c>
-      <c r="M107" s="5">
+      <c r="M107" s="6">
         <v>410</v>
       </c>
     </row>
@@ -5216,39 +5230,39 @@
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
+      <c r="B108" s="7"/>
+      <c r="C108" s="6">
         <v>572</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="6">
         <v>803</v>
       </c>
       <c r="E108" s="5">
-        <v>2.4169999999999998</v>
-      </c>
-      <c r="F108" s="5">
+        <v>2417</v>
+      </c>
+      <c r="F108" s="6">
         <v>645</v>
       </c>
-      <c r="G108" s="5">
+      <c r="G108" s="6">
         <v>908</v>
       </c>
       <c r="H108" s="5">
-        <v>1.169</v>
-      </c>
-      <c r="I108" s="5">
+        <v>1169</v>
+      </c>
+      <c r="I108" s="6">
         <v>513</v>
       </c>
-      <c r="J108" s="5">
+      <c r="J108" s="6">
         <v>25</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="6">
         <v>8</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="6">
         <v>28</v>
       </c>
       <c r="M108" s="5">
-        <v>7.0880000000000001</v>
+        <v>7088</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -5327,7 +5341,7 @@
       <c r="L110" s="4">
         <v>10</v>
       </c>
-      <c r="M110" s="5">
+      <c r="M110" s="6">
         <v>643</v>
       </c>
     </row>
@@ -5366,7 +5380,7 @@
       <c r="L111" s="4">
         <v>1</v>
       </c>
-      <c r="M111" s="5">
+      <c r="M111" s="6">
         <v>715</v>
       </c>
     </row>
@@ -5407,7 +5421,7 @@
       <c r="L112" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M112" s="5">
+      <c r="M112" s="6">
         <v>433</v>
       </c>
     </row>
@@ -5446,7 +5460,7 @@
       <c r="L113" s="4">
         <v>2</v>
       </c>
-      <c r="M113" s="5">
+      <c r="M113" s="6">
         <v>387</v>
       </c>
     </row>
@@ -5487,7 +5501,7 @@
       <c r="L114" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M114" s="5">
+      <c r="M114" s="6">
         <v>364</v>
       </c>
     </row>
@@ -5526,7 +5540,7 @@
       <c r="L115" s="4">
         <v>2</v>
       </c>
-      <c r="M115" s="5">
+      <c r="M115" s="6">
         <v>343</v>
       </c>
     </row>
@@ -5567,7 +5581,7 @@
       <c r="L116" s="4">
         <v>5</v>
       </c>
-      <c r="M116" s="5">
+      <c r="M116" s="6">
         <v>422</v>
       </c>
     </row>
@@ -5606,7 +5620,7 @@
       <c r="L117" s="4">
         <v>1</v>
       </c>
-      <c r="M117" s="5">
+      <c r="M117" s="6">
         <v>332</v>
       </c>
     </row>
@@ -5647,7 +5661,7 @@
       <c r="L118" s="4">
         <v>2</v>
       </c>
-      <c r="M118" s="5">
+      <c r="M118" s="6">
         <v>457</v>
       </c>
     </row>
@@ -5686,7 +5700,7 @@
       <c r="L119" s="4">
         <v>2</v>
       </c>
-      <c r="M119" s="5">
+      <c r="M119" s="6">
         <v>393</v>
       </c>
     </row>
@@ -5727,7 +5741,7 @@
       <c r="L120" s="4">
         <v>2</v>
       </c>
-      <c r="M120" s="5">
+      <c r="M120" s="6">
         <v>484</v>
       </c>
     </row>
@@ -5766,7 +5780,7 @@
       <c r="L121" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M121" s="5">
+      <c r="M121" s="6">
         <v>437</v>
       </c>
     </row>
@@ -5807,7 +5821,7 @@
       <c r="L122" s="4">
         <v>1</v>
       </c>
-      <c r="M122" s="5">
+      <c r="M122" s="6">
         <v>467</v>
       </c>
     </row>
@@ -5846,7 +5860,7 @@
       <c r="L123" s="4">
         <v>4</v>
       </c>
-      <c r="M123" s="5">
+      <c r="M123" s="6">
         <v>474</v>
       </c>
     </row>
@@ -5887,7 +5901,7 @@
       <c r="L124" s="4">
         <v>2</v>
       </c>
-      <c r="M124" s="5">
+      <c r="M124" s="6">
         <v>519</v>
       </c>
     </row>
@@ -5926,7 +5940,7 @@
       <c r="L125" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M125" s="5">
+      <c r="M125" s="6">
         <v>496</v>
       </c>
     </row>
@@ -5967,7 +5981,7 @@
       <c r="L126" s="4">
         <v>1</v>
       </c>
-      <c r="M126" s="5">
+      <c r="M126" s="6">
         <v>430</v>
       </c>
     </row>
@@ -6006,7 +6020,7 @@
       <c r="L127" s="4">
         <v>2</v>
       </c>
-      <c r="M127" s="5">
+      <c r="M127" s="6">
         <v>425</v>
       </c>
     </row>
@@ -6047,7 +6061,7 @@
       <c r="L128" s="4">
         <v>2</v>
       </c>
-      <c r="M128" s="5">
+      <c r="M128" s="6">
         <v>313</v>
       </c>
     </row>
@@ -6086,7 +6100,7 @@
       <c r="L129" s="4">
         <v>2</v>
       </c>
-      <c r="M129" s="5">
+      <c r="M129" s="6">
         <v>361</v>
       </c>
     </row>
@@ -6127,7 +6141,7 @@
       <c r="L130" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="6">
         <v>260</v>
       </c>
     </row>
@@ -6166,7 +6180,7 @@
       <c r="L131" s="4">
         <v>1</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="6">
         <v>291</v>
       </c>
     </row>
@@ -6207,7 +6221,7 @@
       <c r="L132" s="4">
         <v>2</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="6">
         <v>231</v>
       </c>
     </row>
@@ -6246,7 +6260,7 @@
       <c r="L133" s="4">
         <v>2</v>
       </c>
-      <c r="M133" s="5">
+      <c r="M133" s="6">
         <v>432</v>
       </c>
     </row>
@@ -6254,39 +6268,39 @@
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
+      <c r="B134" s="7"/>
+      <c r="C134" s="6">
         <v>680</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="6">
         <v>861</v>
       </c>
       <c r="E134" s="5">
-        <v>3.1190000000000002</v>
+        <v>3119</v>
       </c>
       <c r="F134" s="5">
-        <v>1.145</v>
+        <v>1145</v>
       </c>
       <c r="G134" s="5">
-        <v>1.585</v>
+        <v>1585</v>
       </c>
       <c r="H134" s="5">
-        <v>1.9339999999999999</v>
-      </c>
-      <c r="I134" s="5">
+        <v>1934</v>
+      </c>
+      <c r="I134" s="6">
         <v>697</v>
       </c>
-      <c r="J134" s="5">
+      <c r="J134" s="6">
         <v>37</v>
       </c>
-      <c r="K134" s="5">
+      <c r="K134" s="6">
         <v>5</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="6">
         <v>46</v>
       </c>
       <c r="M134" s="5">
-        <v>10.109</v>
+        <v>10109</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6365,7 +6379,7 @@
       <c r="L136" s="4">
         <v>8</v>
       </c>
-      <c r="M136" s="5">
+      <c r="M136" s="6">
         <v>672</v>
       </c>
     </row>
@@ -6404,7 +6418,7 @@
       <c r="L137" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M137" s="5">
+      <c r="M137" s="6">
         <v>656</v>
       </c>
     </row>
@@ -6445,7 +6459,7 @@
       <c r="L138" s="4">
         <v>1</v>
       </c>
-      <c r="M138" s="5">
+      <c r="M138" s="6">
         <v>381</v>
       </c>
     </row>
@@ -6484,7 +6498,7 @@
       <c r="L139" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M139" s="5">
+      <c r="M139" s="6">
         <v>341</v>
       </c>
     </row>
@@ -6525,7 +6539,7 @@
       <c r="L140" s="4">
         <v>1</v>
       </c>
-      <c r="M140" s="5">
+      <c r="M140" s="6">
         <v>318</v>
       </c>
     </row>
@@ -6564,7 +6578,7 @@
       <c r="L141" s="4">
         <v>2</v>
       </c>
-      <c r="M141" s="5">
+      <c r="M141" s="6">
         <v>279</v>
       </c>
     </row>
@@ -6605,7 +6619,7 @@
       <c r="L142" s="4">
         <v>1</v>
       </c>
-      <c r="M142" s="5">
+      <c r="M142" s="6">
         <v>339</v>
       </c>
     </row>
@@ -6644,7 +6658,7 @@
       <c r="L143" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M143" s="5">
+      <c r="M143" s="6">
         <v>329</v>
       </c>
     </row>
@@ -6685,7 +6699,7 @@
       <c r="L144" s="4">
         <v>1</v>
       </c>
-      <c r="M144" s="5">
+      <c r="M144" s="6">
         <v>412</v>
       </c>
     </row>
@@ -6724,7 +6738,7 @@
       <c r="L145" s="4">
         <v>1</v>
       </c>
-      <c r="M145" s="5">
+      <c r="M145" s="6">
         <v>385</v>
       </c>
     </row>
@@ -6765,7 +6779,7 @@
       <c r="L146" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M146" s="5">
+      <c r="M146" s="6">
         <v>442</v>
       </c>
     </row>
@@ -6804,7 +6818,7 @@
       <c r="L147" s="4">
         <v>1</v>
       </c>
-      <c r="M147" s="5">
+      <c r="M147" s="6">
         <v>375</v>
       </c>
     </row>
@@ -6845,7 +6859,7 @@
       <c r="L148" s="4">
         <v>1</v>
       </c>
-      <c r="M148" s="5">
+      <c r="M148" s="6">
         <v>373</v>
       </c>
     </row>
@@ -6884,7 +6898,7 @@
       <c r="L149" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M149" s="5">
+      <c r="M149" s="6">
         <v>344</v>
       </c>
     </row>
@@ -6925,7 +6939,7 @@
       <c r="L150" s="4">
         <v>2</v>
       </c>
-      <c r="M150" s="5">
+      <c r="M150" s="6">
         <v>439</v>
       </c>
     </row>
@@ -6964,7 +6978,7 @@
       <c r="L151" s="4">
         <v>3</v>
       </c>
-      <c r="M151" s="5">
+      <c r="M151" s="6">
         <v>463</v>
       </c>
     </row>
@@ -7005,7 +7019,7 @@
       <c r="L152" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M152" s="5">
+      <c r="M152" s="6">
         <v>380</v>
       </c>
     </row>
@@ -7044,7 +7058,7 @@
       <c r="L153" s="4">
         <v>1</v>
       </c>
-      <c r="M153" s="5">
+      <c r="M153" s="6">
         <v>364</v>
       </c>
     </row>
@@ -7085,7 +7099,7 @@
       <c r="L154" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M154" s="5">
+      <c r="M154" s="6">
         <v>348</v>
       </c>
     </row>
@@ -7124,7 +7138,7 @@
       <c r="L155" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M155" s="5">
+      <c r="M155" s="6">
         <v>339</v>
       </c>
     </row>
@@ -7165,7 +7179,7 @@
       <c r="L156" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M156" s="5">
+      <c r="M156" s="6">
         <v>278</v>
       </c>
     </row>
@@ -7204,7 +7218,7 @@
       <c r="L157" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M157" s="5">
+      <c r="M157" s="6">
         <v>269</v>
       </c>
     </row>
@@ -7245,7 +7259,7 @@
       <c r="L158" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M158" s="5">
+      <c r="M158" s="6">
         <v>300</v>
       </c>
     </row>
@@ -7284,7 +7298,7 @@
       <c r="L159" s="4">
         <v>1</v>
       </c>
-      <c r="M159" s="5">
+      <c r="M159" s="6">
         <v>450</v>
       </c>
     </row>
@@ -7292,39 +7306,39 @@
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
+      <c r="B160" s="7"/>
+      <c r="C160" s="6">
         <v>617</v>
       </c>
       <c r="D160" s="5">
-        <v>1.1819999999999999</v>
+        <v>1182</v>
       </c>
       <c r="E160" s="5">
-        <v>2.762</v>
-      </c>
-      <c r="F160" s="5">
+        <v>2762</v>
+      </c>
+      <c r="F160" s="6">
         <v>817</v>
       </c>
       <c r="G160" s="5">
-        <v>1.41</v>
+        <v>1410</v>
       </c>
       <c r="H160" s="5">
-        <v>1.748</v>
-      </c>
-      <c r="I160" s="5">
+        <v>1748</v>
+      </c>
+      <c r="I160" s="6">
         <v>674</v>
       </c>
-      <c r="J160" s="5">
+      <c r="J160" s="6">
         <v>38</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="6">
         <v>4</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="6">
         <v>24</v>
       </c>
       <c r="M160" s="5">
-        <v>9.2759999999999998</v>
+        <v>9276</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -7385,11 +7399,11 @@
       <c r="F162" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G162" s="4">
-        <v>1.4890000000000001</v>
-      </c>
-      <c r="H162" s="4">
-        <v>3.8540000000000001</v>
+      <c r="G162" s="9">
+        <v>1489</v>
+      </c>
+      <c r="H162" s="9">
+        <v>3854</v>
       </c>
       <c r="I162" s="4">
         <v>861</v>
@@ -7404,7 +7418,7 @@
         <v>57</v>
       </c>
       <c r="M162" s="5">
-        <v>6.3209999999999997</v>
+        <v>6321</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7424,14 +7438,14 @@
       <c r="F163" s="4">
         <v>2</v>
       </c>
-      <c r="G163" s="4">
-        <v>1.0209999999999999</v>
-      </c>
-      <c r="H163" s="4">
-        <v>4.0830000000000002</v>
-      </c>
-      <c r="I163" s="4">
-        <v>1.4379999999999999</v>
+      <c r="G163" s="9">
+        <v>1021</v>
+      </c>
+      <c r="H163" s="9">
+        <v>4083</v>
+      </c>
+      <c r="I163" s="9">
+        <v>1438</v>
       </c>
       <c r="J163" s="4">
         <v>3</v>
@@ -7443,7 +7457,7 @@
         <v>8</v>
       </c>
       <c r="M163" s="5">
-        <v>6.6159999999999997</v>
+        <v>6616</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7465,14 +7479,14 @@
       <c r="F164" s="4">
         <v>18</v>
       </c>
-      <c r="G164" s="4">
-        <v>1.3160000000000001</v>
-      </c>
-      <c r="H164" s="4">
-        <v>1.36</v>
-      </c>
-      <c r="I164" s="4">
-        <v>1.5149999999999999</v>
+      <c r="G164" s="9">
+        <v>1316</v>
+      </c>
+      <c r="H164" s="9">
+        <v>1360</v>
+      </c>
+      <c r="I164" s="9">
+        <v>1515</v>
       </c>
       <c r="J164" s="4">
         <v>73</v>
@@ -7484,7 +7498,7 @@
         <v>22</v>
       </c>
       <c r="M164" s="5">
-        <v>4.3449999999999998</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7504,14 +7518,14 @@
       <c r="F165" s="4">
         <v>40</v>
       </c>
-      <c r="G165" s="4">
-        <v>1.147</v>
-      </c>
-      <c r="H165" s="4">
-        <v>1.18</v>
-      </c>
-      <c r="I165" s="4">
-        <v>2.149</v>
+      <c r="G165" s="9">
+        <v>1147</v>
+      </c>
+      <c r="H165" s="9">
+        <v>1180</v>
+      </c>
+      <c r="I165" s="9">
+        <v>2149</v>
       </c>
       <c r="J165" s="4">
         <v>118</v>
@@ -7523,7 +7537,7 @@
         <v>11</v>
       </c>
       <c r="M165" s="5">
-        <v>4.7119999999999997</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -7548,11 +7562,11 @@
       <c r="G166" s="4">
         <v>470</v>
       </c>
-      <c r="H166" s="4">
-        <v>1.474</v>
-      </c>
-      <c r="I166" s="4">
-        <v>1.296</v>
+      <c r="H166" s="9">
+        <v>1474</v>
+      </c>
+      <c r="I166" s="9">
+        <v>1296</v>
       </c>
       <c r="J166" s="4">
         <v>157</v>
@@ -7564,7 +7578,7 @@
         <v>13</v>
       </c>
       <c r="M166" s="5">
-        <v>4.2880000000000003</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7587,11 +7601,11 @@
       <c r="G167" s="4">
         <v>442</v>
       </c>
-      <c r="H167" s="4">
-        <v>1.2410000000000001</v>
-      </c>
-      <c r="I167" s="4">
-        <v>1.615</v>
+      <c r="H167" s="9">
+        <v>1241</v>
+      </c>
+      <c r="I167" s="9">
+        <v>1615</v>
       </c>
       <c r="J167" s="4">
         <v>166</v>
@@ -7603,7 +7617,7 @@
         <v>26</v>
       </c>
       <c r="M167" s="5">
-        <v>4.5890000000000004</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -7628,11 +7642,11 @@
       <c r="G168" s="4">
         <v>496</v>
       </c>
-      <c r="H168" s="4">
-        <v>1.5840000000000001</v>
-      </c>
-      <c r="I168" s="4">
-        <v>1.042</v>
+      <c r="H168" s="9">
+        <v>1584</v>
+      </c>
+      <c r="I168" s="9">
+        <v>1042</v>
       </c>
       <c r="J168" s="4">
         <v>198</v>
@@ -7644,7 +7658,7 @@
         <v>28</v>
       </c>
       <c r="M168" s="5">
-        <v>4.5439999999999996</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7667,11 +7681,11 @@
       <c r="G169" s="4">
         <v>476</v>
       </c>
-      <c r="H169" s="4">
-        <v>1.2849999999999999</v>
-      </c>
-      <c r="I169" s="4">
-        <v>1.03</v>
+      <c r="H169" s="9">
+        <v>1285</v>
+      </c>
+      <c r="I169" s="9">
+        <v>1030</v>
       </c>
       <c r="J169" s="4">
         <v>149</v>
@@ -7683,7 +7697,7 @@
         <v>21</v>
       </c>
       <c r="M169" s="5">
-        <v>4.6559999999999997</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -7708,8 +7722,8 @@
       <c r="G170" s="4">
         <v>925</v>
       </c>
-      <c r="H170" s="4">
-        <v>1.4910000000000001</v>
+      <c r="H170" s="9">
+        <v>1491</v>
       </c>
       <c r="I170" s="4">
         <v>841</v>
@@ -7724,7 +7738,7 @@
         <v>19</v>
       </c>
       <c r="M170" s="5">
-        <v>4.7169999999999996</v>
+        <v>4717</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7738,8 +7752,8 @@
       <c r="D171" s="4">
         <v>29</v>
       </c>
-      <c r="E171" s="4">
-        <v>1.2849999999999999</v>
+      <c r="E171" s="9">
+        <v>1285</v>
       </c>
       <c r="F171" s="4">
         <v>789</v>
@@ -7747,8 +7761,8 @@
       <c r="G171" s="4">
         <v>772</v>
       </c>
-      <c r="H171" s="4">
-        <v>1.268</v>
+      <c r="H171" s="9">
+        <v>1268</v>
       </c>
       <c r="I171" s="4">
         <v>839</v>
@@ -7763,7 +7777,7 @@
         <v>24</v>
       </c>
       <c r="M171" s="5">
-        <v>5.14</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7788,8 +7802,8 @@
       <c r="G172" s="4">
         <v>807</v>
       </c>
-      <c r="H172" s="4">
-        <v>1.2909999999999999</v>
+      <c r="H172" s="9">
+        <v>1291</v>
       </c>
       <c r="I172" s="4">
         <v>733</v>
@@ -7804,7 +7818,7 @@
         <v>27</v>
       </c>
       <c r="M172" s="5">
-        <v>4.351</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7818,8 +7832,8 @@
       <c r="D173" s="4">
         <v>43</v>
       </c>
-      <c r="E173" s="4">
-        <v>1.319</v>
+      <c r="E173" s="9">
+        <v>1319</v>
       </c>
       <c r="F173" s="4">
         <v>790</v>
@@ -7843,7 +7857,7 @@
         <v>24</v>
       </c>
       <c r="M173" s="5">
-        <v>4.383</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -7884,7 +7898,7 @@
         <v>23</v>
       </c>
       <c r="M174" s="5">
-        <v>3.8580000000000001</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -7898,8 +7912,8 @@
       <c r="D175" s="4">
         <v>84</v>
       </c>
-      <c r="E175" s="4">
-        <v>1.411</v>
+      <c r="E175" s="9">
+        <v>1411</v>
       </c>
       <c r="F175" s="4">
         <v>547</v>
@@ -7923,7 +7937,7 @@
         <v>26</v>
       </c>
       <c r="M175" s="5">
-        <v>3.6760000000000002</v>
+        <v>3676</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -7939,8 +7953,8 @@
       <c r="D176" s="4">
         <v>18</v>
       </c>
-      <c r="E176" s="4">
-        <v>1.0389999999999999</v>
+      <c r="E176" s="9">
+        <v>1039</v>
       </c>
       <c r="F176" s="4">
         <v>635</v>
@@ -7964,7 +7978,7 @@
         <v>24</v>
       </c>
       <c r="M176" s="5">
-        <v>3.8929999999999998</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -7978,8 +7992,8 @@
       <c r="D177" s="4">
         <v>229</v>
       </c>
-      <c r="E177" s="4">
-        <v>1.782</v>
+      <c r="E177" s="9">
+        <v>1782</v>
       </c>
       <c r="F177" s="4">
         <v>419</v>
@@ -8003,7 +8017,7 @@
         <v>39</v>
       </c>
       <c r="M177" s="5">
-        <v>3.7869999999999999</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -8019,8 +8033,8 @@
       <c r="D178" s="4">
         <v>46</v>
       </c>
-      <c r="E178" s="4">
-        <v>1.3149999999999999</v>
+      <c r="E178" s="9">
+        <v>1315</v>
       </c>
       <c r="F178" s="4">
         <v>331</v>
@@ -8044,7 +8058,7 @@
         <v>27</v>
       </c>
       <c r="M178" s="5">
-        <v>3.3330000000000002</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8058,8 +8072,8 @@
       <c r="D179" s="4">
         <v>417</v>
       </c>
-      <c r="E179" s="4">
-        <v>1.7130000000000001</v>
+      <c r="E179" s="9">
+        <v>1713</v>
       </c>
       <c r="F179" s="4">
         <v>197</v>
@@ -8083,7 +8097,7 @@
         <v>34</v>
       </c>
       <c r="M179" s="5">
-        <v>3.2810000000000001</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -8099,8 +8113,8 @@
       <c r="D180" s="4">
         <v>93</v>
       </c>
-      <c r="E180" s="4">
-        <v>1.456</v>
+      <c r="E180" s="9">
+        <v>1456</v>
       </c>
       <c r="F180" s="4">
         <v>153</v>
@@ -8124,7 +8138,7 @@
         <v>23</v>
       </c>
       <c r="M180" s="5">
-        <v>2.7610000000000001</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -8138,8 +8152,8 @@
       <c r="D181" s="4">
         <v>805</v>
       </c>
-      <c r="E181" s="4">
-        <v>1.29</v>
+      <c r="E181" s="9">
+        <v>1290</v>
       </c>
       <c r="F181" s="4">
         <v>70</v>
@@ -8163,7 +8177,7 @@
         <v>32</v>
       </c>
       <c r="M181" s="5">
-        <v>2.9820000000000002</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -8179,8 +8193,8 @@
       <c r="D182" s="4">
         <v>143</v>
       </c>
-      <c r="E182" s="4">
-        <v>1.204</v>
+      <c r="E182" s="9">
+        <v>1204</v>
       </c>
       <c r="F182" s="4">
         <v>75</v>
@@ -8204,7 +8218,7 @@
         <v>20</v>
       </c>
       <c r="M182" s="5">
-        <v>1.996</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -8243,7 +8257,7 @@
         <v>25</v>
       </c>
       <c r="M183" s="5">
-        <v>2.1440000000000001</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -8259,8 +8273,8 @@
       <c r="D184" s="4">
         <v>509</v>
       </c>
-      <c r="E184" s="4">
-        <v>1.0860000000000001</v>
+      <c r="E184" s="9">
+        <v>1086</v>
       </c>
       <c r="F184" s="4">
         <v>17</v>
@@ -8284,7 +8298,7 @@
         <v>19</v>
       </c>
       <c r="M184" s="5">
-        <v>2.3159999999999998</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -8292,11 +8306,11 @@
       <c r="B185" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C185" s="4">
-        <v>1.3480000000000001</v>
-      </c>
-      <c r="D185" s="4">
-        <v>1.429</v>
+      <c r="C185" s="9">
+        <v>1348</v>
+      </c>
+      <c r="D185" s="9">
+        <v>1429</v>
       </c>
       <c r="E185" s="4">
         <v>591</v>
@@ -8323,46 +8337,46 @@
         <v>23</v>
       </c>
       <c r="M185" s="5">
-        <v>3.484</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
+      <c r="B186" s="7"/>
       <c r="C186" s="5">
-        <v>3.214</v>
+        <v>3214</v>
       </c>
       <c r="D186" s="5">
-        <v>4.9240000000000004</v>
+        <v>4924</v>
       </c>
       <c r="E186" s="5">
-        <v>19.422000000000001</v>
+        <v>19422</v>
       </c>
       <c r="F186" s="5">
-        <v>9.6579999999999995</v>
+        <v>9658</v>
       </c>
       <c r="G186" s="5">
-        <v>14.526</v>
+        <v>14526</v>
       </c>
       <c r="H186" s="5">
-        <v>25.815999999999999</v>
+        <v>25816</v>
       </c>
       <c r="I186" s="5">
-        <v>16.399000000000001</v>
+        <v>16399</v>
       </c>
       <c r="J186" s="5">
-        <v>1.4890000000000001</v>
-      </c>
-      <c r="K186" s="5">
+        <v>1489</v>
+      </c>
+      <c r="K186" s="6">
         <v>130</v>
       </c>
-      <c r="L186" s="5">
+      <c r="L186" s="6">
         <v>595</v>
       </c>
       <c r="M186" s="5">
-        <v>96.173000000000002</v>
+        <v>96173</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -8442,7 +8456,7 @@
         <v>13</v>
       </c>
       <c r="M188" s="5">
-        <v>1.1779999999999999</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -8481,7 +8495,7 @@
         <v>15</v>
       </c>
       <c r="M189" s="5">
-        <v>1.1040000000000001</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -8521,7 +8535,7 @@
       <c r="L190" s="4">
         <v>3</v>
       </c>
-      <c r="M190" s="5">
+      <c r="M190" s="6">
         <v>809</v>
       </c>
     </row>
@@ -8560,7 +8574,7 @@
       <c r="L191" s="4">
         <v>2</v>
       </c>
-      <c r="M191" s="5">
+      <c r="M191" s="6">
         <v>696</v>
       </c>
     </row>
@@ -8601,7 +8615,7 @@
       <c r="L192" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M192" s="5">
+      <c r="M192" s="6">
         <v>712</v>
       </c>
     </row>
@@ -8640,7 +8654,7 @@
       <c r="L193" s="4">
         <v>2</v>
       </c>
-      <c r="M193" s="5">
+      <c r="M193" s="6">
         <v>581</v>
       </c>
     </row>
@@ -8681,7 +8695,7 @@
       <c r="L194" s="4">
         <v>3</v>
       </c>
-      <c r="M194" s="5">
+      <c r="M194" s="6">
         <v>738</v>
       </c>
     </row>
@@ -8720,7 +8734,7 @@
       <c r="L195" s="4">
         <v>2</v>
       </c>
-      <c r="M195" s="5">
+      <c r="M195" s="6">
         <v>604</v>
       </c>
     </row>
@@ -8761,7 +8775,7 @@
       <c r="L196" s="4">
         <v>3</v>
       </c>
-      <c r="M196" s="5">
+      <c r="M196" s="6">
         <v>907</v>
       </c>
     </row>
@@ -8800,7 +8814,7 @@
       <c r="L197" s="4">
         <v>1</v>
       </c>
-      <c r="M197" s="5">
+      <c r="M197" s="6">
         <v>695</v>
       </c>
     </row>
@@ -8841,7 +8855,7 @@
       <c r="L198" s="4">
         <v>2</v>
       </c>
-      <c r="M198" s="5">
+      <c r="M198" s="6">
         <v>901</v>
       </c>
     </row>
@@ -8880,7 +8894,7 @@
       <c r="L199" s="4">
         <v>5</v>
       </c>
-      <c r="M199" s="5">
+      <c r="M199" s="6">
         <v>842</v>
       </c>
     </row>
@@ -8921,7 +8935,7 @@
       <c r="L200" s="4">
         <v>1</v>
       </c>
-      <c r="M200" s="5">
+      <c r="M200" s="6">
         <v>982</v>
       </c>
     </row>
@@ -8960,7 +8974,7 @@
       <c r="L201" s="4">
         <v>1</v>
       </c>
-      <c r="M201" s="5">
+      <c r="M201" s="6">
         <v>974</v>
       </c>
     </row>
@@ -9002,7 +9016,7 @@
         <v>2</v>
       </c>
       <c r="M202" s="5">
-        <v>1.1910000000000001</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -9041,7 +9055,7 @@
         <v>2</v>
       </c>
       <c r="M203" s="5">
-        <v>1.109</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -9082,7 +9096,7 @@
         <v>2</v>
       </c>
       <c r="M204" s="5">
-        <v>1.04</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -9121,7 +9135,7 @@
         <v>3</v>
       </c>
       <c r="M205" s="5">
-        <v>1.0329999999999999</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -9161,7 +9175,7 @@
       <c r="L206" s="4">
         <v>1</v>
       </c>
-      <c r="M206" s="5">
+      <c r="M206" s="6">
         <v>801</v>
       </c>
     </row>
@@ -9200,7 +9214,7 @@
       <c r="L207" s="4">
         <v>3</v>
       </c>
-      <c r="M207" s="5">
+      <c r="M207" s="6">
         <v>932</v>
       </c>
     </row>
@@ -9241,7 +9255,7 @@
       <c r="L208" s="4">
         <v>4</v>
       </c>
-      <c r="M208" s="5">
+      <c r="M208" s="6">
         <v>708</v>
       </c>
     </row>
@@ -9280,7 +9294,7 @@
       <c r="L209" s="4">
         <v>1</v>
       </c>
-      <c r="M209" s="5">
+      <c r="M209" s="6">
         <v>812</v>
       </c>
     </row>
@@ -9321,7 +9335,7 @@
       <c r="L210" s="4">
         <v>1</v>
       </c>
-      <c r="M210" s="5">
+      <c r="M210" s="6">
         <v>841</v>
       </c>
     </row>
@@ -9361,46 +9375,46 @@
         <v>8</v>
       </c>
       <c r="M211" s="5">
-        <v>1.2529999999999999</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
+      <c r="B212" s="7"/>
       <c r="C212" s="5">
-        <v>1.948</v>
+        <v>1948</v>
       </c>
       <c r="D212" s="5">
-        <v>1.9550000000000001</v>
+        <v>1955</v>
       </c>
       <c r="E212" s="5">
-        <v>5.5350000000000001</v>
+        <v>5535</v>
       </c>
       <c r="F212" s="5">
-        <v>1.59</v>
+        <v>1590</v>
       </c>
       <c r="G212" s="5">
-        <v>3.242</v>
+        <v>3242</v>
       </c>
       <c r="H212" s="5">
-        <v>5.2919999999999998</v>
+        <v>5292</v>
       </c>
       <c r="I212" s="5">
-        <v>1.6539999999999999</v>
-      </c>
-      <c r="J212" s="5">
+        <v>1654</v>
+      </c>
+      <c r="J212" s="6">
         <v>144</v>
       </c>
-      <c r="K212" s="5">
+      <c r="K212" s="6">
         <v>18</v>
       </c>
-      <c r="L212" s="5">
+      <c r="L212" s="6">
         <v>65</v>
       </c>
       <c r="M212" s="5">
-        <v>21.443000000000001</v>
+        <v>21443</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -9479,7 +9493,7 @@
       <c r="L214" s="4">
         <v>6</v>
       </c>
-      <c r="M214" s="5">
+      <c r="M214" s="6">
         <v>358</v>
       </c>
     </row>
@@ -9518,7 +9532,7 @@
       <c r="L215" s="4">
         <v>2</v>
       </c>
-      <c r="M215" s="5">
+      <c r="M215" s="6">
         <v>333</v>
       </c>
     </row>
@@ -9559,7 +9573,7 @@
       <c r="L216" s="4">
         <v>5</v>
       </c>
-      <c r="M216" s="5">
+      <c r="M216" s="6">
         <v>258</v>
       </c>
     </row>
@@ -9598,7 +9612,7 @@
       <c r="L217" s="4">
         <v>1</v>
       </c>
-      <c r="M217" s="5">
+      <c r="M217" s="6">
         <v>232</v>
       </c>
     </row>
@@ -9639,7 +9653,7 @@
       <c r="L218" s="4">
         <v>2</v>
       </c>
-      <c r="M218" s="5">
+      <c r="M218" s="6">
         <v>290</v>
       </c>
     </row>
@@ -9678,7 +9692,7 @@
       <c r="L219" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M219" s="5">
+      <c r="M219" s="6">
         <v>201</v>
       </c>
     </row>
@@ -9719,7 +9733,7 @@
       <c r="L220" s="4">
         <v>3</v>
       </c>
-      <c r="M220" s="5">
+      <c r="M220" s="6">
         <v>233</v>
       </c>
     </row>
@@ -9758,7 +9772,7 @@
       <c r="L221" s="4">
         <v>1</v>
       </c>
-      <c r="M221" s="5">
+      <c r="M221" s="6">
         <v>176</v>
       </c>
     </row>
@@ -9799,7 +9813,7 @@
       <c r="L222" s="4">
         <v>1</v>
       </c>
-      <c r="M222" s="5">
+      <c r="M222" s="6">
         <v>295</v>
       </c>
     </row>
@@ -9838,7 +9852,7 @@
       <c r="L223" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M223" s="5">
+      <c r="M223" s="6">
         <v>235</v>
       </c>
     </row>
@@ -9879,7 +9893,7 @@
       <c r="L224" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M224" s="5">
+      <c r="M224" s="6">
         <v>252</v>
       </c>
     </row>
@@ -9918,7 +9932,7 @@
       <c r="L225" s="4">
         <v>2</v>
       </c>
-      <c r="M225" s="5">
+      <c r="M225" s="6">
         <v>260</v>
       </c>
     </row>
@@ -9959,7 +9973,7 @@
       <c r="L226" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M226" s="5">
+      <c r="M226" s="6">
         <v>311</v>
       </c>
     </row>
@@ -9998,7 +10012,7 @@
       <c r="L227" s="4">
         <v>2</v>
       </c>
-      <c r="M227" s="5">
+      <c r="M227" s="6">
         <v>329</v>
       </c>
     </row>
@@ -10039,7 +10053,7 @@
       <c r="L228" s="4">
         <v>5</v>
       </c>
-      <c r="M228" s="5">
+      <c r="M228" s="6">
         <v>378</v>
       </c>
     </row>
@@ -10078,7 +10092,7 @@
       <c r="L229" s="4">
         <v>2</v>
       </c>
-      <c r="M229" s="5">
+      <c r="M229" s="6">
         <v>368</v>
       </c>
     </row>
@@ -10119,7 +10133,7 @@
       <c r="L230" s="4">
         <v>9</v>
       </c>
-      <c r="M230" s="5">
+      <c r="M230" s="6">
         <v>402</v>
       </c>
     </row>
@@ -10158,7 +10172,7 @@
       <c r="L231" s="4">
         <v>6</v>
       </c>
-      <c r="M231" s="5">
+      <c r="M231" s="6">
         <v>364</v>
       </c>
     </row>
@@ -10199,7 +10213,7 @@
       <c r="L232" s="4">
         <v>3</v>
       </c>
-      <c r="M232" s="5">
+      <c r="M232" s="6">
         <v>322</v>
       </c>
     </row>
@@ -10238,7 +10252,7 @@
       <c r="L233" s="4">
         <v>4</v>
       </c>
-      <c r="M233" s="5">
+      <c r="M233" s="6">
         <v>358</v>
       </c>
     </row>
@@ -10279,7 +10293,7 @@
       <c r="L234" s="4">
         <v>4</v>
       </c>
-      <c r="M234" s="5">
+      <c r="M234" s="6">
         <v>248</v>
       </c>
     </row>
@@ -10318,7 +10332,7 @@
       <c r="L235" s="4">
         <v>1</v>
       </c>
-      <c r="M235" s="5">
+      <c r="M235" s="6">
         <v>255</v>
       </c>
     </row>
@@ -10359,7 +10373,7 @@
       <c r="L236" s="4">
         <v>3</v>
       </c>
-      <c r="M236" s="5">
+      <c r="M236" s="6">
         <v>360</v>
       </c>
     </row>
@@ -10398,7 +10412,7 @@
       <c r="L237" s="4">
         <v>2</v>
       </c>
-      <c r="M237" s="5">
+      <c r="M237" s="6">
         <v>516</v>
       </c>
     </row>
@@ -10406,39 +10420,39 @@
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B238" s="6"/>
-      <c r="C238" s="5">
+      <c r="B238" s="7"/>
+      <c r="C238" s="6">
         <v>258</v>
       </c>
-      <c r="D238" s="5">
+      <c r="D238" s="6">
         <v>570</v>
       </c>
       <c r="E238" s="5">
-        <v>1.9319999999999999</v>
-      </c>
-      <c r="F238" s="5">
+        <v>1932</v>
+      </c>
+      <c r="F238" s="6">
         <v>609</v>
       </c>
-      <c r="G238" s="5">
+      <c r="G238" s="6">
         <v>878</v>
       </c>
       <c r="H238" s="5">
-        <v>1.9590000000000001</v>
-      </c>
-      <c r="I238" s="5">
+        <v>1959</v>
+      </c>
+      <c r="I238" s="6">
         <v>980</v>
       </c>
-      <c r="J238" s="5">
+      <c r="J238" s="6">
         <v>76</v>
       </c>
-      <c r="K238" s="5">
+      <c r="K238" s="6">
         <v>8</v>
       </c>
-      <c r="L238" s="5">
+      <c r="L238" s="6">
         <v>64</v>
       </c>
       <c r="M238" s="5">
-        <v>7.3339999999999996</v>
+        <v>7334</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -10517,7 +10531,7 @@
       <c r="L240" s="4">
         <v>3</v>
       </c>
-      <c r="M240" s="5">
+      <c r="M240" s="6">
         <v>476</v>
       </c>
     </row>
@@ -10556,7 +10570,7 @@
       <c r="L241" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M241" s="5">
+      <c r="M241" s="6">
         <v>422</v>
       </c>
     </row>
@@ -10597,7 +10611,7 @@
       <c r="L242" s="4">
         <v>3</v>
       </c>
-      <c r="M242" s="5">
+      <c r="M242" s="6">
         <v>355</v>
       </c>
     </row>
@@ -10636,7 +10650,7 @@
       <c r="L243" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M243" s="5">
+      <c r="M243" s="6">
         <v>242</v>
       </c>
     </row>
@@ -10677,7 +10691,7 @@
       <c r="L244" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M244" s="5">
+      <c r="M244" s="6">
         <v>293</v>
       </c>
     </row>
@@ -10716,7 +10730,7 @@
       <c r="L245" s="4">
         <v>1</v>
       </c>
-      <c r="M245" s="5">
+      <c r="M245" s="6">
         <v>217</v>
       </c>
     </row>
@@ -10757,7 +10771,7 @@
       <c r="L246" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M246" s="5">
+      <c r="M246" s="6">
         <v>331</v>
       </c>
     </row>
@@ -10796,7 +10810,7 @@
       <c r="L247" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M247" s="5">
+      <c r="M247" s="6">
         <v>237</v>
       </c>
     </row>
@@ -10837,7 +10851,7 @@
       <c r="L248" s="4">
         <v>3</v>
       </c>
-      <c r="M248" s="5">
+      <c r="M248" s="6">
         <v>399</v>
       </c>
     </row>
@@ -10876,7 +10890,7 @@
       <c r="L249" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M249" s="5">
+      <c r="M249" s="6">
         <v>337</v>
       </c>
     </row>
@@ -10917,7 +10931,7 @@
       <c r="L250" s="4">
         <v>1</v>
       </c>
-      <c r="M250" s="5">
+      <c r="M250" s="6">
         <v>450</v>
       </c>
     </row>
@@ -10956,7 +10970,7 @@
       <c r="L251" s="4">
         <v>1</v>
       </c>
-      <c r="M251" s="5">
+      <c r="M251" s="6">
         <v>396</v>
       </c>
     </row>
@@ -10997,7 +11011,7 @@
       <c r="L252" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M252" s="5">
+      <c r="M252" s="6">
         <v>548</v>
       </c>
     </row>
@@ -11036,7 +11050,7 @@
       <c r="L253" s="4">
         <v>1</v>
       </c>
-      <c r="M253" s="5">
+      <c r="M253" s="6">
         <v>521</v>
       </c>
     </row>
@@ -11077,7 +11091,7 @@
       <c r="L254" s="4">
         <v>2</v>
       </c>
-      <c r="M254" s="5">
+      <c r="M254" s="6">
         <v>736</v>
       </c>
     </row>
@@ -11116,7 +11130,7 @@
       <c r="L255" s="4">
         <v>1</v>
       </c>
-      <c r="M255" s="5">
+      <c r="M255" s="6">
         <v>676</v>
       </c>
     </row>
@@ -11157,7 +11171,7 @@
       <c r="L256" s="4">
         <v>1</v>
       </c>
-      <c r="M256" s="5">
+      <c r="M256" s="6">
         <v>636</v>
       </c>
     </row>
@@ -11196,7 +11210,7 @@
       <c r="L257" s="4">
         <v>1</v>
       </c>
-      <c r="M257" s="5">
+      <c r="M257" s="6">
         <v>607</v>
       </c>
     </row>
@@ -11237,7 +11251,7 @@
       <c r="L258" s="4">
         <v>2</v>
       </c>
-      <c r="M258" s="5">
+      <c r="M258" s="6">
         <v>520</v>
       </c>
     </row>
@@ -11276,7 +11290,7 @@
       <c r="L259" s="4">
         <v>1</v>
       </c>
-      <c r="M259" s="5">
+      <c r="M259" s="6">
         <v>590</v>
       </c>
     </row>
@@ -11317,7 +11331,7 @@
       <c r="L260" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M260" s="5">
+      <c r="M260" s="6">
         <v>355</v>
       </c>
     </row>
@@ -11356,7 +11370,7 @@
       <c r="L261" s="4">
         <v>3</v>
       </c>
-      <c r="M261" s="5">
+      <c r="M261" s="6">
         <v>466</v>
       </c>
     </row>
@@ -11397,7 +11411,7 @@
       <c r="L262" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M262" s="5">
+      <c r="M262" s="6">
         <v>380</v>
       </c>
     </row>
@@ -11436,7 +11450,7 @@
       <c r="L263" s="4">
         <v>2</v>
       </c>
-      <c r="M263" s="5">
+      <c r="M263" s="6">
         <v>645</v>
       </c>
     </row>
@@ -11444,39 +11458,39 @@
       <c r="A264" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B264" s="6"/>
+      <c r="B264" s="7"/>
       <c r="C264" s="5">
-        <v>1.0429999999999999</v>
+        <v>1043</v>
       </c>
       <c r="D264" s="5">
-        <v>1.415</v>
+        <v>1415</v>
       </c>
       <c r="E264" s="5">
-        <v>3.3010000000000002</v>
+        <v>3301</v>
       </c>
       <c r="F264" s="5">
-        <v>1.0840000000000001</v>
+        <v>1084</v>
       </c>
       <c r="G264" s="5">
-        <v>1.5129999999999999</v>
+        <v>1513</v>
       </c>
       <c r="H264" s="5">
-        <v>1.7969999999999999</v>
-      </c>
-      <c r="I264" s="5">
+        <v>1797</v>
+      </c>
+      <c r="I264" s="6">
         <v>614</v>
       </c>
-      <c r="J264" s="5">
+      <c r="J264" s="6">
         <v>37</v>
       </c>
-      <c r="K264" s="5">
+      <c r="K264" s="6">
         <v>5</v>
       </c>
-      <c r="L264" s="5">
+      <c r="L264" s="6">
         <v>26</v>
       </c>
       <c r="M264" s="5">
-        <v>10.835000000000001</v>
+        <v>10835</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -11555,7 +11569,7 @@
       <c r="L266" s="4">
         <v>4</v>
       </c>
-      <c r="M266" s="5">
+      <c r="M266" s="6">
         <v>681</v>
       </c>
     </row>
@@ -11594,7 +11608,7 @@
       <c r="L267" s="4">
         <v>1</v>
       </c>
-      <c r="M267" s="5">
+      <c r="M267" s="6">
         <v>608</v>
       </c>
     </row>
@@ -11635,7 +11649,7 @@
       <c r="L268" s="4">
         <v>1</v>
       </c>
-      <c r="M268" s="5">
+      <c r="M268" s="6">
         <v>364</v>
       </c>
     </row>
@@ -11674,7 +11688,7 @@
       <c r="L269" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M269" s="5">
+      <c r="M269" s="6">
         <v>293</v>
       </c>
     </row>
@@ -11715,7 +11729,7 @@
       <c r="L270" s="4">
         <v>3</v>
       </c>
-      <c r="M270" s="5">
+      <c r="M270" s="6">
         <v>327</v>
       </c>
     </row>
@@ -11754,7 +11768,7 @@
       <c r="L271" s="4">
         <v>2</v>
       </c>
-      <c r="M271" s="5">
+      <c r="M271" s="6">
         <v>268</v>
       </c>
     </row>
@@ -11795,7 +11809,7 @@
       <c r="L272" s="4">
         <v>2</v>
       </c>
-      <c r="M272" s="5">
+      <c r="M272" s="6">
         <v>337</v>
       </c>
     </row>
@@ -11834,7 +11848,7 @@
       <c r="L273" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M273" s="5">
+      <c r="M273" s="6">
         <v>316</v>
       </c>
     </row>
@@ -11875,7 +11889,7 @@
       <c r="L274" s="4">
         <v>1</v>
       </c>
-      <c r="M274" s="5">
+      <c r="M274" s="6">
         <v>433</v>
       </c>
     </row>
@@ -11914,7 +11928,7 @@
       <c r="L275" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M275" s="5">
+      <c r="M275" s="6">
         <v>353</v>
       </c>
     </row>
@@ -11955,7 +11969,7 @@
       <c r="L276" s="4">
         <v>1</v>
       </c>
-      <c r="M276" s="5">
+      <c r="M276" s="6">
         <v>450</v>
       </c>
     </row>
@@ -11994,7 +12008,7 @@
       <c r="L277" s="4">
         <v>1</v>
       </c>
-      <c r="M277" s="5">
+      <c r="M277" s="6">
         <v>427</v>
       </c>
     </row>
@@ -12035,7 +12049,7 @@
       <c r="L278" s="4">
         <v>1</v>
       </c>
-      <c r="M278" s="5">
+      <c r="M278" s="6">
         <v>499</v>
       </c>
     </row>
@@ -12074,7 +12088,7 @@
       <c r="L279" s="4">
         <v>3</v>
       </c>
-      <c r="M279" s="5">
+      <c r="M279" s="6">
         <v>433</v>
       </c>
     </row>
@@ -12115,7 +12129,7 @@
       <c r="L280" s="4">
         <v>3</v>
       </c>
-      <c r="M280" s="5">
+      <c r="M280" s="6">
         <v>617</v>
       </c>
     </row>
@@ -12154,7 +12168,7 @@
       <c r="L281" s="4">
         <v>1</v>
       </c>
-      <c r="M281" s="5">
+      <c r="M281" s="6">
         <v>570</v>
       </c>
     </row>
@@ -12195,7 +12209,7 @@
       <c r="L282" s="4">
         <v>3</v>
       </c>
-      <c r="M282" s="5">
+      <c r="M282" s="6">
         <v>565</v>
       </c>
     </row>
@@ -12234,7 +12248,7 @@
       <c r="L283" s="4">
         <v>2</v>
       </c>
-      <c r="M283" s="5">
+      <c r="M283" s="6">
         <v>517</v>
       </c>
     </row>
@@ -12275,7 +12289,7 @@
       <c r="L284" s="4">
         <v>4</v>
       </c>
-      <c r="M284" s="5">
+      <c r="M284" s="6">
         <v>467</v>
       </c>
     </row>
@@ -12314,7 +12328,7 @@
       <c r="L285" s="4">
         <v>6</v>
       </c>
-      <c r="M285" s="5">
+      <c r="M285" s="6">
         <v>472</v>
       </c>
     </row>
@@ -12355,7 +12369,7 @@
       <c r="L286" s="4">
         <v>3</v>
       </c>
-      <c r="M286" s="5">
+      <c r="M286" s="6">
         <v>360</v>
       </c>
     </row>
@@ -12394,7 +12408,7 @@
       <c r="L287" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M287" s="5">
+      <c r="M287" s="6">
         <v>344</v>
       </c>
     </row>
@@ -12435,7 +12449,7 @@
       <c r="L288" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M288" s="5">
+      <c r="M288" s="6">
         <v>413</v>
       </c>
     </row>
@@ -12474,7 +12488,7 @@
       <c r="L289" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M289" s="5">
+      <c r="M289" s="6">
         <v>598</v>
       </c>
     </row>
@@ -12482,39 +12496,39 @@
       <c r="A290" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B290" s="6"/>
-      <c r="C290" s="5">
+      <c r="B290" s="7"/>
+      <c r="C290" s="6">
         <v>536</v>
       </c>
       <c r="D290" s="5">
-        <v>1.6180000000000001</v>
+        <v>1618</v>
       </c>
       <c r="E290" s="5">
-        <v>3.2669999999999999</v>
-      </c>
-      <c r="F290" s="5">
+        <v>3267</v>
+      </c>
+      <c r="F290" s="6">
         <v>894</v>
       </c>
       <c r="G290" s="5">
-        <v>1.64</v>
+        <v>1640</v>
       </c>
       <c r="H290" s="5">
-        <v>1.9159999999999999</v>
-      </c>
-      <c r="I290" s="5">
+        <v>1916</v>
+      </c>
+      <c r="I290" s="6">
         <v>751</v>
       </c>
-      <c r="J290" s="5">
+      <c r="J290" s="6">
         <v>45</v>
       </c>
-      <c r="K290" s="5">
+      <c r="K290" s="6">
         <v>3</v>
       </c>
-      <c r="L290" s="5">
+      <c r="L290" s="6">
         <v>42</v>
       </c>
       <c r="M290" s="5">
-        <v>10.712</v>
+        <v>10712</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -12593,7 +12607,7 @@
       <c r="L292" s="4">
         <v>2</v>
       </c>
-      <c r="M292" s="5">
+      <c r="M292" s="6">
         <v>319</v>
       </c>
     </row>
@@ -12632,7 +12646,7 @@
       <c r="L293" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M293" s="5">
+      <c r="M293" s="6">
         <v>236</v>
       </c>
     </row>
@@ -12673,7 +12687,7 @@
       <c r="L294" s="4">
         <v>2</v>
       </c>
-      <c r="M294" s="5">
+      <c r="M294" s="6">
         <v>237</v>
       </c>
     </row>
@@ -12712,7 +12726,7 @@
       <c r="L295" s="4">
         <v>1</v>
       </c>
-      <c r="M295" s="5">
+      <c r="M295" s="6">
         <v>120</v>
       </c>
     </row>
@@ -12753,7 +12767,7 @@
       <c r="L296" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M296" s="5">
+      <c r="M296" s="6">
         <v>167</v>
       </c>
     </row>
@@ -12792,7 +12806,7 @@
       <c r="L297" s="4">
         <v>2</v>
       </c>
-      <c r="M297" s="5">
+      <c r="M297" s="6">
         <v>85</v>
       </c>
     </row>
@@ -12833,7 +12847,7 @@
       <c r="L298" s="4">
         <v>3</v>
       </c>
-      <c r="M298" s="5">
+      <c r="M298" s="6">
         <v>156</v>
       </c>
     </row>
@@ -12872,7 +12886,7 @@
       <c r="L299" s="4">
         <v>1</v>
       </c>
-      <c r="M299" s="5">
+      <c r="M299" s="6">
         <v>91</v>
       </c>
     </row>
@@ -12913,7 +12927,7 @@
       <c r="L300" s="4">
         <v>3</v>
       </c>
-      <c r="M300" s="5">
+      <c r="M300" s="6">
         <v>224</v>
       </c>
     </row>
@@ -12952,7 +12966,7 @@
       <c r="L301" s="4">
         <v>1</v>
       </c>
-      <c r="M301" s="5">
+      <c r="M301" s="6">
         <v>153</v>
       </c>
     </row>
@@ -12993,7 +13007,7 @@
       <c r="L302" s="4">
         <v>1</v>
       </c>
-      <c r="M302" s="5">
+      <c r="M302" s="6">
         <v>262</v>
       </c>
     </row>
@@ -13032,7 +13046,7 @@
       <c r="L303" s="4">
         <v>1</v>
       </c>
-      <c r="M303" s="5">
+      <c r="M303" s="6">
         <v>190</v>
       </c>
     </row>
@@ -13073,7 +13087,7 @@
       <c r="L304" s="4">
         <v>2</v>
       </c>
-      <c r="M304" s="5">
+      <c r="M304" s="6">
         <v>315</v>
       </c>
     </row>
@@ -13112,7 +13126,7 @@
       <c r="L305" s="4">
         <v>1</v>
       </c>
-      <c r="M305" s="5">
+      <c r="M305" s="6">
         <v>277</v>
       </c>
     </row>
@@ -13153,7 +13167,7 @@
       <c r="L306" s="4">
         <v>1</v>
       </c>
-      <c r="M306" s="5">
+      <c r="M306" s="6">
         <v>396</v>
       </c>
     </row>
@@ -13192,7 +13206,7 @@
       <c r="L307" s="4">
         <v>2</v>
       </c>
-      <c r="M307" s="5">
+      <c r="M307" s="6">
         <v>321</v>
       </c>
     </row>
@@ -13233,7 +13247,7 @@
       <c r="L308" s="4">
         <v>2</v>
       </c>
-      <c r="M308" s="5">
+      <c r="M308" s="6">
         <v>381</v>
       </c>
     </row>
@@ -13272,7 +13286,7 @@
       <c r="L309" s="4">
         <v>2</v>
       </c>
-      <c r="M309" s="5">
+      <c r="M309" s="6">
         <v>288</v>
       </c>
     </row>
@@ -13313,7 +13327,7 @@
       <c r="L310" s="4">
         <v>4</v>
       </c>
-      <c r="M310" s="5">
+      <c r="M310" s="6">
         <v>319</v>
       </c>
     </row>
@@ -13352,7 +13366,7 @@
       <c r="L311" s="4">
         <v>2</v>
       </c>
-      <c r="M311" s="5">
+      <c r="M311" s="6">
         <v>302</v>
       </c>
     </row>
@@ -13393,7 +13407,7 @@
       <c r="L312" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M312" s="5">
+      <c r="M312" s="6">
         <v>223</v>
       </c>
     </row>
@@ -13432,7 +13446,7 @@
       <c r="L313" s="4">
         <v>2</v>
       </c>
-      <c r="M313" s="5">
+      <c r="M313" s="6">
         <v>235</v>
       </c>
     </row>
@@ -13473,7 +13487,7 @@
       <c r="L314" s="4">
         <v>2</v>
       </c>
-      <c r="M314" s="5">
+      <c r="M314" s="6">
         <v>332</v>
       </c>
     </row>
@@ -13512,7 +13526,7 @@
       <c r="L315" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M315" s="5">
+      <c r="M315" s="6">
         <v>400</v>
       </c>
     </row>
@@ -13520,39 +13534,39 @@
       <c r="A316" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B316" s="6"/>
-      <c r="C316" s="5">
+      <c r="B316" s="7"/>
+      <c r="C316" s="6">
         <v>275</v>
       </c>
-      <c r="D316" s="5">
+      <c r="D316" s="6">
         <v>620</v>
       </c>
       <c r="E316" s="5">
-        <v>1.718</v>
-      </c>
-      <c r="F316" s="5">
+        <v>1718</v>
+      </c>
+      <c r="F316" s="6">
         <v>534</v>
       </c>
-      <c r="G316" s="5">
+      <c r="G316" s="6">
         <v>899</v>
       </c>
       <c r="H316" s="5">
-        <v>1.3420000000000001</v>
-      </c>
-      <c r="I316" s="5">
+        <v>1342</v>
+      </c>
+      <c r="I316" s="6">
         <v>570</v>
       </c>
-      <c r="J316" s="5">
+      <c r="J316" s="6">
         <v>29</v>
       </c>
-      <c r="K316" s="5">
+      <c r="K316" s="6">
         <v>5</v>
       </c>
-      <c r="L316" s="5">
+      <c r="L316" s="6">
         <v>37</v>
       </c>
       <c r="M316" s="5">
-        <v>6.0289999999999999</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -13631,7 +13645,7 @@
       <c r="L318" s="4">
         <v>4</v>
       </c>
-      <c r="M318" s="5">
+      <c r="M318" s="6">
         <v>479</v>
       </c>
     </row>
@@ -13670,7 +13684,7 @@
       <c r="L319" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M319" s="5">
+      <c r="M319" s="6">
         <v>426</v>
       </c>
     </row>
@@ -13711,7 +13725,7 @@
       <c r="L320" s="4">
         <v>2</v>
       </c>
-      <c r="M320" s="5">
+      <c r="M320" s="6">
         <v>277</v>
       </c>
     </row>
@@ -13750,7 +13764,7 @@
       <c r="L321" s="4">
         <v>4</v>
       </c>
-      <c r="M321" s="5">
+      <c r="M321" s="6">
         <v>260</v>
       </c>
     </row>
@@ -13791,7 +13805,7 @@
       <c r="L322" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M322" s="5">
+      <c r="M322" s="6">
         <v>223</v>
       </c>
     </row>
@@ -13830,7 +13844,7 @@
       <c r="L323" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M323" s="5">
+      <c r="M323" s="6">
         <v>223</v>
       </c>
     </row>
@@ -13871,7 +13885,7 @@
       <c r="L324" s="4">
         <v>1</v>
       </c>
-      <c r="M324" s="5">
+      <c r="M324" s="6">
         <v>262</v>
       </c>
     </row>
@@ -13910,7 +13924,7 @@
       <c r="L325" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M325" s="5">
+      <c r="M325" s="6">
         <v>214</v>
       </c>
     </row>
@@ -13951,7 +13965,7 @@
       <c r="L326" s="4">
         <v>2</v>
       </c>
-      <c r="M326" s="5">
+      <c r="M326" s="6">
         <v>336</v>
       </c>
     </row>
@@ -13990,7 +14004,7 @@
       <c r="L327" s="4">
         <v>1</v>
       </c>
-      <c r="M327" s="5">
+      <c r="M327" s="6">
         <v>278</v>
       </c>
     </row>
@@ -14031,7 +14045,7 @@
       <c r="L328" s="4">
         <v>5</v>
       </c>
-      <c r="M328" s="5">
+      <c r="M328" s="6">
         <v>350</v>
       </c>
     </row>
@@ -14070,7 +14084,7 @@
       <c r="L329" s="4">
         <v>1</v>
       </c>
-      <c r="M329" s="5">
+      <c r="M329" s="6">
         <v>288</v>
       </c>
     </row>
@@ -14111,7 +14125,7 @@
       <c r="L330" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M330" s="5">
+      <c r="M330" s="6">
         <v>404</v>
       </c>
     </row>
@@ -14150,7 +14164,7 @@
       <c r="L331" s="4">
         <v>3</v>
       </c>
-      <c r="M331" s="5">
+      <c r="M331" s="6">
         <v>433</v>
       </c>
     </row>
@@ -14191,7 +14205,7 @@
       <c r="L332" s="4">
         <v>2</v>
       </c>
-      <c r="M332" s="5">
+      <c r="M332" s="6">
         <v>457</v>
       </c>
     </row>
@@ -14230,7 +14244,7 @@
       <c r="L333" s="4">
         <v>1</v>
       </c>
-      <c r="M333" s="5">
+      <c r="M333" s="6">
         <v>466</v>
       </c>
     </row>
@@ -14271,7 +14285,7 @@
       <c r="L334" s="4">
         <v>1</v>
       </c>
-      <c r="M334" s="5">
+      <c r="M334" s="6">
         <v>377</v>
       </c>
     </row>
@@ -14310,7 +14324,7 @@
       <c r="L335" s="4">
         <v>1</v>
       </c>
-      <c r="M335" s="5">
+      <c r="M335" s="6">
         <v>422</v>
       </c>
     </row>
@@ -14351,7 +14365,7 @@
       <c r="L336" s="4">
         <v>5</v>
       </c>
-      <c r="M336" s="5">
+      <c r="M336" s="6">
         <v>359</v>
       </c>
     </row>
@@ -14390,7 +14404,7 @@
       <c r="L337" s="4">
         <v>3</v>
       </c>
-      <c r="M337" s="5">
+      <c r="M337" s="6">
         <v>447</v>
       </c>
     </row>
@@ -14431,7 +14445,7 @@
       <c r="L338" s="4">
         <v>1</v>
       </c>
-      <c r="M338" s="5">
+      <c r="M338" s="6">
         <v>229</v>
       </c>
     </row>
@@ -14470,7 +14484,7 @@
       <c r="L339" s="4">
         <v>2</v>
       </c>
-      <c r="M339" s="5">
+      <c r="M339" s="6">
         <v>321</v>
       </c>
     </row>
@@ -14511,7 +14525,7 @@
       <c r="L340" s="4">
         <v>1</v>
       </c>
-      <c r="M340" s="5">
+      <c r="M340" s="6">
         <v>376</v>
       </c>
     </row>
@@ -14550,7 +14564,7 @@
       <c r="L341" s="4">
         <v>2</v>
       </c>
-      <c r="M341" s="5">
+      <c r="M341" s="6">
         <v>499</v>
       </c>
     </row>
@@ -14558,39 +14572,39 @@
       <c r="A342" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B342" s="6"/>
-      <c r="C342" s="5">
+      <c r="B342" s="7"/>
+      <c r="C342" s="6">
         <v>555</v>
       </c>
       <c r="D342" s="5">
-        <v>1.1220000000000001</v>
+        <v>1122</v>
       </c>
       <c r="E342" s="5">
-        <v>2.5960000000000001</v>
-      </c>
-      <c r="F342" s="5">
+        <v>2596</v>
+      </c>
+      <c r="F342" s="6">
         <v>723</v>
       </c>
-      <c r="G342" s="5">
+      <c r="G342" s="6">
         <v>943</v>
       </c>
       <c r="H342" s="5">
-        <v>1.5369999999999999</v>
-      </c>
-      <c r="I342" s="5">
+        <v>1537</v>
+      </c>
+      <c r="I342" s="6">
         <v>819</v>
       </c>
-      <c r="J342" s="5">
+      <c r="J342" s="6">
         <v>63</v>
       </c>
-      <c r="K342" s="5">
+      <c r="K342" s="6">
         <v>6</v>
       </c>
-      <c r="L342" s="5">
+      <c r="L342" s="6">
         <v>42</v>
       </c>
       <c r="M342" s="5">
-        <v>8.4060000000000006</v>
+        <v>8406</v>
       </c>
     </row>
     <row r="343" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -14670,7 +14684,7 @@
         <v>27</v>
       </c>
       <c r="M344" s="5">
-        <v>1.47</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
@@ -14709,7 +14723,7 @@
         <v>5</v>
       </c>
       <c r="M345" s="5">
-        <v>1.5069999999999999</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
@@ -14749,7 +14763,7 @@
       <c r="L346" s="4">
         <v>1</v>
       </c>
-      <c r="M346" s="5">
+      <c r="M346" s="6">
         <v>785</v>
       </c>
     </row>
@@ -14788,7 +14802,7 @@
       <c r="L347" s="4">
         <v>1</v>
       </c>
-      <c r="M347" s="5">
+      <c r="M347" s="6">
         <v>789</v>
       </c>
     </row>
@@ -14829,7 +14843,7 @@
       <c r="L348" s="4">
         <v>2</v>
       </c>
-      <c r="M348" s="5">
+      <c r="M348" s="6">
         <v>754</v>
       </c>
     </row>
@@ -14868,7 +14882,7 @@
       <c r="L349" s="4">
         <v>1</v>
       </c>
-      <c r="M349" s="5">
+      <c r="M349" s="6">
         <v>702</v>
       </c>
     </row>
@@ -14909,7 +14923,7 @@
       <c r="L350" s="4">
         <v>2</v>
       </c>
-      <c r="M350" s="5">
+      <c r="M350" s="6">
         <v>882</v>
       </c>
     </row>
@@ -14948,7 +14962,7 @@
       <c r="L351" s="4">
         <v>2</v>
       </c>
-      <c r="M351" s="5">
+      <c r="M351" s="6">
         <v>797</v>
       </c>
     </row>
@@ -14989,7 +15003,7 @@
       <c r="L352" s="4">
         <v>5</v>
       </c>
-      <c r="M352" s="5">
+      <c r="M352" s="6">
         <v>969</v>
       </c>
     </row>
@@ -15028,7 +15042,7 @@
       <c r="L353" s="4">
         <v>1</v>
       </c>
-      <c r="M353" s="5">
+      <c r="M353" s="6">
         <v>807</v>
       </c>
     </row>
@@ -15069,7 +15083,7 @@
       <c r="L354" s="4">
         <v>8</v>
       </c>
-      <c r="M354" s="5">
+      <c r="M354" s="6">
         <v>862</v>
       </c>
     </row>
@@ -15108,7 +15122,7 @@
       <c r="L355" s="4">
         <v>12</v>
       </c>
-      <c r="M355" s="5">
+      <c r="M355" s="6">
         <v>855</v>
       </c>
     </row>
@@ -15149,7 +15163,7 @@
       <c r="L356" s="4">
         <v>6</v>
       </c>
-      <c r="M356" s="5">
+      <c r="M356" s="6">
         <v>834</v>
       </c>
     </row>
@@ -15188,7 +15202,7 @@
       <c r="L357" s="4">
         <v>7</v>
       </c>
-      <c r="M357" s="5">
+      <c r="M357" s="6">
         <v>813</v>
       </c>
     </row>
@@ -15229,7 +15243,7 @@
       <c r="L358" s="4">
         <v>7</v>
       </c>
-      <c r="M358" s="5">
+      <c r="M358" s="6">
         <v>960</v>
       </c>
     </row>
@@ -15269,7 +15283,7 @@
         <v>5</v>
       </c>
       <c r="M359" s="5">
-        <v>1.02</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
@@ -15309,7 +15323,7 @@
       <c r="L360" s="4">
         <v>4</v>
       </c>
-      <c r="M360" s="5">
+      <c r="M360" s="6">
         <v>815</v>
       </c>
     </row>
@@ -15348,7 +15362,7 @@
       <c r="L361" s="4">
         <v>7</v>
       </c>
-      <c r="M361" s="5">
+      <c r="M361" s="6">
         <v>836</v>
       </c>
     </row>
@@ -15389,7 +15403,7 @@
       <c r="L362" s="4">
         <v>5</v>
       </c>
-      <c r="M362" s="5">
+      <c r="M362" s="6">
         <v>781</v>
       </c>
     </row>
@@ -15428,7 +15442,7 @@
       <c r="L363" s="4">
         <v>8</v>
       </c>
-      <c r="M363" s="5">
+      <c r="M363" s="6">
         <v>836</v>
       </c>
     </row>
@@ -15469,7 +15483,7 @@
       <c r="L364" s="4">
         <v>4</v>
       </c>
-      <c r="M364" s="5">
+      <c r="M364" s="6">
         <v>516</v>
       </c>
     </row>
@@ -15508,7 +15522,7 @@
       <c r="L365" s="4">
         <v>11</v>
       </c>
-      <c r="M365" s="5">
+      <c r="M365" s="6">
         <v>608</v>
       </c>
     </row>
@@ -15549,7 +15563,7 @@
       <c r="L366" s="4">
         <v>17</v>
       </c>
-      <c r="M366" s="5">
+      <c r="M366" s="6">
         <v>715</v>
       </c>
     </row>
@@ -15588,7 +15602,7 @@
       <c r="L367" s="4">
         <v>9</v>
       </c>
-      <c r="M367" s="5">
+      <c r="M367" s="6">
         <v>945</v>
       </c>
     </row>
@@ -15596,39 +15610,39 @@
       <c r="A368" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B368" s="6"/>
+      <c r="B368" s="7"/>
       <c r="C368" s="5">
-        <v>2.246</v>
+        <v>2246</v>
       </c>
       <c r="D368" s="5">
-        <v>1.929</v>
+        <v>1929</v>
       </c>
       <c r="E368" s="5">
-        <v>5.665</v>
+        <v>5665</v>
       </c>
       <c r="F368" s="5">
-        <v>1.8939999999999999</v>
+        <v>1894</v>
       </c>
       <c r="G368" s="5">
-        <v>2.883</v>
+        <v>2883</v>
       </c>
       <c r="H368" s="5">
-        <v>4.2610000000000001</v>
+        <v>4261</v>
       </c>
       <c r="I368" s="5">
-        <v>1.696</v>
-      </c>
-      <c r="J368" s="5">
+        <v>1696</v>
+      </c>
+      <c r="J368" s="6">
         <v>120</v>
       </c>
-      <c r="K368" s="5">
+      <c r="K368" s="6">
         <v>7</v>
       </c>
-      <c r="L368" s="5">
+      <c r="L368" s="6">
         <v>157</v>
       </c>
       <c r="M368" s="5">
-        <v>20.858000000000001</v>
+        <v>20858</v>
       </c>
     </row>
     <row r="369" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -15708,7 +15722,7 @@
         <v>9</v>
       </c>
       <c r="M370" s="5">
-        <v>1.401</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
@@ -15747,7 +15761,7 @@
         <v>15</v>
       </c>
       <c r="M371" s="5">
-        <v>1.4610000000000001</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
@@ -15787,7 +15801,7 @@
       <c r="L372" s="4">
         <v>3</v>
       </c>
-      <c r="M372" s="5">
+      <c r="M372" s="6">
         <v>867</v>
       </c>
     </row>
@@ -15826,7 +15840,7 @@
       <c r="L373" s="4">
         <v>5</v>
       </c>
-      <c r="M373" s="5">
+      <c r="M373" s="6">
         <v>779</v>
       </c>
     </row>
@@ -15867,7 +15881,7 @@
       <c r="L374" s="4">
         <v>6</v>
       </c>
-      <c r="M374" s="5">
+      <c r="M374" s="6">
         <v>786</v>
       </c>
     </row>
@@ -15906,7 +15920,7 @@
       <c r="L375" s="4">
         <v>5</v>
       </c>
-      <c r="M375" s="5">
+      <c r="M375" s="6">
         <v>714</v>
       </c>
     </row>
@@ -15947,7 +15961,7 @@
       <c r="L376" s="4">
         <v>6</v>
       </c>
-      <c r="M376" s="5">
+      <c r="M376" s="6">
         <v>868</v>
       </c>
     </row>
@@ -15986,7 +16000,7 @@
       <c r="L377" s="4">
         <v>4</v>
       </c>
-      <c r="M377" s="5">
+      <c r="M377" s="6">
         <v>777</v>
       </c>
     </row>
@@ -16027,7 +16041,7 @@
       <c r="L378" s="4">
         <v>1</v>
       </c>
-      <c r="M378" s="5">
+      <c r="M378" s="6">
         <v>964</v>
       </c>
     </row>
@@ -16066,7 +16080,7 @@
       <c r="L379" s="4">
         <v>1</v>
       </c>
-      <c r="M379" s="5">
+      <c r="M379" s="6">
         <v>861</v>
       </c>
     </row>
@@ -16107,7 +16121,7 @@
       <c r="L380" s="4">
         <v>5</v>
       </c>
-      <c r="M380" s="5">
+      <c r="M380" s="6">
         <v>834</v>
       </c>
     </row>
@@ -16146,7 +16160,7 @@
       <c r="L381" s="4">
         <v>4</v>
       </c>
-      <c r="M381" s="5">
+      <c r="M381" s="6">
         <v>887</v>
       </c>
     </row>
@@ -16187,7 +16201,7 @@
       <c r="L382" s="4">
         <v>2</v>
       </c>
-      <c r="M382" s="5">
+      <c r="M382" s="6">
         <v>892</v>
       </c>
     </row>
@@ -16226,7 +16240,7 @@
       <c r="L383" s="4">
         <v>4</v>
       </c>
-      <c r="M383" s="5">
+      <c r="M383" s="6">
         <v>846</v>
       </c>
     </row>
@@ -16268,7 +16282,7 @@
         <v>3</v>
       </c>
       <c r="M384" s="5">
-        <v>1.0389999999999999</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
@@ -16307,7 +16321,7 @@
         <v>6</v>
       </c>
       <c r="M385" s="5">
-        <v>1.0209999999999999</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.25">
@@ -16347,7 +16361,7 @@
       <c r="L386" s="4">
         <v>5</v>
       </c>
-      <c r="M386" s="5">
+      <c r="M386" s="6">
         <v>922</v>
       </c>
     </row>
@@ -16386,7 +16400,7 @@
       <c r="L387" s="4">
         <v>4</v>
       </c>
-      <c r="M387" s="5">
+      <c r="M387" s="6">
         <v>913</v>
       </c>
     </row>
@@ -16427,7 +16441,7 @@
       <c r="L388" s="4">
         <v>7</v>
       </c>
-      <c r="M388" s="5">
+      <c r="M388" s="6">
         <v>852</v>
       </c>
     </row>
@@ -16466,7 +16480,7 @@
       <c r="L389" s="4">
         <v>9</v>
       </c>
-      <c r="M389" s="5">
+      <c r="M389" s="6">
         <v>982</v>
       </c>
     </row>
@@ -16507,7 +16521,7 @@
       <c r="L390" s="4">
         <v>1</v>
       </c>
-      <c r="M390" s="5">
+      <c r="M390" s="6">
         <v>591</v>
       </c>
     </row>
@@ -16546,7 +16560,7 @@
       <c r="L391" s="4">
         <v>1</v>
       </c>
-      <c r="M391" s="5">
+      <c r="M391" s="6">
         <v>680</v>
       </c>
     </row>
@@ -16587,7 +16601,7 @@
       <c r="L392" s="4">
         <v>4</v>
       </c>
-      <c r="M392" s="5">
+      <c r="M392" s="6">
         <v>884</v>
       </c>
     </row>
@@ -16627,46 +16641,46 @@
         <v>7</v>
       </c>
       <c r="M393" s="5">
-        <v>1.2230000000000001</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B394" s="6"/>
+      <c r="B394" s="7"/>
       <c r="C394" s="5">
-        <v>1.36</v>
+        <v>1360</v>
       </c>
       <c r="D394" s="5">
-        <v>2.694</v>
+        <v>2694</v>
       </c>
       <c r="E394" s="5">
-        <v>6.4130000000000003</v>
+        <v>6413</v>
       </c>
       <c r="F394" s="5">
-        <v>2.089</v>
+        <v>2089</v>
       </c>
       <c r="G394" s="5">
-        <v>3.01</v>
+        <v>3010</v>
       </c>
       <c r="H394" s="5">
-        <v>4.5019999999999998</v>
+        <v>4502</v>
       </c>
       <c r="I394" s="5">
-        <v>1.774</v>
-      </c>
-      <c r="J394" s="5">
+        <v>1774</v>
+      </c>
+      <c r="J394" s="6">
         <v>85</v>
       </c>
-      <c r="K394" s="5">
-        <v>15</v>
-      </c>
-      <c r="L394" s="5">
+      <c r="K394" s="6">
+        <v>15</v>
+      </c>
+      <c r="L394" s="6">
         <v>102</v>
       </c>
       <c r="M394" s="5">
-        <v>22.044</v>
+        <v>22044</v>
       </c>
     </row>
     <row r="395" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -16745,7 +16759,7 @@
       <c r="L396" s="4">
         <v>3</v>
       </c>
-      <c r="M396" s="5">
+      <c r="M396" s="6">
         <v>373</v>
       </c>
     </row>
@@ -16784,7 +16798,7 @@
       <c r="L397" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M397" s="5">
+      <c r="M397" s="6">
         <v>306</v>
       </c>
     </row>
@@ -16825,7 +16839,7 @@
       <c r="L398" s="4">
         <v>4</v>
       </c>
-      <c r="M398" s="5">
+      <c r="M398" s="6">
         <v>369</v>
       </c>
     </row>
@@ -16864,7 +16878,7 @@
       <c r="L399" s="4">
         <v>1</v>
       </c>
-      <c r="M399" s="5">
+      <c r="M399" s="6">
         <v>220</v>
       </c>
     </row>
@@ -16905,7 +16919,7 @@
       <c r="L400" s="4">
         <v>1</v>
       </c>
-      <c r="M400" s="5">
+      <c r="M400" s="6">
         <v>312</v>
       </c>
     </row>
@@ -16944,7 +16958,7 @@
       <c r="L401" s="4">
         <v>2</v>
       </c>
-      <c r="M401" s="5">
+      <c r="M401" s="6">
         <v>181</v>
       </c>
     </row>
@@ -16985,7 +16999,7 @@
       <c r="L402" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M402" s="5">
+      <c r="M402" s="6">
         <v>256</v>
       </c>
     </row>
@@ -17024,7 +17038,7 @@
       <c r="L403" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M403" s="5">
+      <c r="M403" s="6">
         <v>142</v>
       </c>
     </row>
@@ -17065,7 +17079,7 @@
       <c r="L404" s="4">
         <v>2</v>
       </c>
-      <c r="M404" s="5">
+      <c r="M404" s="6">
         <v>280</v>
       </c>
     </row>
@@ -17104,7 +17118,7 @@
       <c r="L405" s="4">
         <v>2</v>
       </c>
-      <c r="M405" s="5">
+      <c r="M405" s="6">
         <v>172</v>
       </c>
     </row>
@@ -17145,7 +17159,7 @@
       <c r="L406" s="4">
         <v>2</v>
       </c>
-      <c r="M406" s="5">
+      <c r="M406" s="6">
         <v>296</v>
       </c>
     </row>
@@ -17184,7 +17198,7 @@
       <c r="L407" s="4">
         <v>3</v>
       </c>
-      <c r="M407" s="5">
+      <c r="M407" s="6">
         <v>243</v>
       </c>
     </row>
@@ -17225,7 +17239,7 @@
       <c r="L408" s="4">
         <v>2</v>
       </c>
-      <c r="M408" s="5">
+      <c r="M408" s="6">
         <v>367</v>
       </c>
     </row>
@@ -17264,7 +17278,7 @@
       <c r="L409" s="4">
         <v>2</v>
       </c>
-      <c r="M409" s="5">
+      <c r="M409" s="6">
         <v>388</v>
       </c>
     </row>
@@ -17305,7 +17319,7 @@
       <c r="L410" s="4">
         <v>2</v>
       </c>
-      <c r="M410" s="5">
+      <c r="M410" s="6">
         <v>617</v>
       </c>
     </row>
@@ -17344,7 +17358,7 @@
       <c r="L411" s="4">
         <v>1</v>
       </c>
-      <c r="M411" s="5">
+      <c r="M411" s="6">
         <v>614</v>
       </c>
     </row>
@@ -17385,7 +17399,7 @@
       <c r="L412" s="4">
         <v>5</v>
       </c>
-      <c r="M412" s="5">
+      <c r="M412" s="6">
         <v>756</v>
       </c>
     </row>
@@ -17424,7 +17438,7 @@
       <c r="L413" s="4">
         <v>4</v>
       </c>
-      <c r="M413" s="5">
+      <c r="M413" s="6">
         <v>692</v>
       </c>
     </row>
@@ -17465,7 +17479,7 @@
       <c r="L414" s="4">
         <v>10</v>
       </c>
-      <c r="M414" s="5">
+      <c r="M414" s="6">
         <v>738</v>
       </c>
     </row>
@@ -17504,7 +17518,7 @@
       <c r="L415" s="4">
         <v>7</v>
       </c>
-      <c r="M415" s="5">
+      <c r="M415" s="6">
         <v>748</v>
       </c>
     </row>
@@ -17545,7 +17559,7 @@
       <c r="L416" s="4">
         <v>4</v>
       </c>
-      <c r="M416" s="5">
+      <c r="M416" s="6">
         <v>550</v>
       </c>
     </row>
@@ -17584,7 +17598,7 @@
       <c r="L417" s="4">
         <v>3</v>
       </c>
-      <c r="M417" s="5">
+      <c r="M417" s="6">
         <v>559</v>
       </c>
     </row>
@@ -17625,7 +17639,7 @@
       <c r="L418" s="4">
         <v>11</v>
       </c>
-      <c r="M418" s="5">
+      <c r="M418" s="6">
         <v>820</v>
       </c>
     </row>
@@ -17665,46 +17679,46 @@
         <v>17</v>
       </c>
       <c r="M419" s="5">
-        <v>1.0900000000000001</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B420" s="6"/>
+      <c r="B420" s="7"/>
       <c r="C420" s="5">
-        <v>1.0820000000000001</v>
-      </c>
-      <c r="D420" s="5">
+        <v>1082</v>
+      </c>
+      <c r="D420" s="6">
         <v>741</v>
       </c>
       <c r="E420" s="5">
-        <v>4.4640000000000004</v>
-      </c>
-      <c r="F420" s="5">
+        <v>4464</v>
+      </c>
+      <c r="F420" s="6">
         <v>880</v>
       </c>
       <c r="G420" s="5">
-        <v>1.202</v>
+        <v>1202</v>
       </c>
       <c r="H420" s="5">
-        <v>1.724</v>
-      </c>
-      <c r="I420" s="5">
+        <v>1724</v>
+      </c>
+      <c r="I420" s="6">
         <v>849</v>
       </c>
-      <c r="J420" s="5">
+      <c r="J420" s="6">
         <v>51</v>
       </c>
-      <c r="K420" s="5">
+      <c r="K420" s="6">
         <v>8</v>
       </c>
-      <c r="L420" s="5">
+      <c r="L420" s="6">
         <v>88</v>
       </c>
       <c r="M420" s="5">
-        <v>11.089</v>
+        <v>11089</v>
       </c>
     </row>
     <row r="421" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -17784,7 +17798,7 @@
         <v>8</v>
       </c>
       <c r="M422" s="5">
-        <v>1.119</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.25">
@@ -17823,7 +17837,7 @@
         <v>5</v>
       </c>
       <c r="M423" s="5">
-        <v>1.0589999999999999</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.25">
@@ -17863,7 +17877,7 @@
       <c r="L424" s="4">
         <v>4</v>
       </c>
-      <c r="M424" s="5">
+      <c r="M424" s="6">
         <v>835</v>
       </c>
     </row>
@@ -17902,7 +17916,7 @@
       <c r="L425" s="4">
         <v>7</v>
       </c>
-      <c r="M425" s="5">
+      <c r="M425" s="6">
         <v>647</v>
       </c>
     </row>
@@ -17943,7 +17957,7 @@
       <c r="L426" s="4">
         <v>10</v>
       </c>
-      <c r="M426" s="5">
+      <c r="M426" s="6">
         <v>653</v>
       </c>
     </row>
@@ -17982,7 +17996,7 @@
       <c r="L427" s="4">
         <v>8</v>
       </c>
-      <c r="M427" s="5">
+      <c r="M427" s="6">
         <v>513</v>
       </c>
     </row>
@@ -18023,7 +18037,7 @@
       <c r="L428" s="4">
         <v>11</v>
       </c>
-      <c r="M428" s="5">
+      <c r="M428" s="6">
         <v>647</v>
       </c>
     </row>
@@ -18062,7 +18076,7 @@
       <c r="L429" s="4">
         <v>7</v>
       </c>
-      <c r="M429" s="5">
+      <c r="M429" s="6">
         <v>491</v>
       </c>
     </row>
@@ -18103,7 +18117,7 @@
       <c r="L430" s="4">
         <v>6</v>
       </c>
-      <c r="M430" s="5">
+      <c r="M430" s="6">
         <v>726</v>
       </c>
     </row>
@@ -18142,7 +18156,7 @@
       <c r="L431" s="4">
         <v>12</v>
       </c>
-      <c r="M431" s="5">
+      <c r="M431" s="6">
         <v>735</v>
       </c>
     </row>
@@ -18183,7 +18197,7 @@
       <c r="L432" s="4">
         <v>20</v>
       </c>
-      <c r="M432" s="5">
+      <c r="M432" s="6">
         <v>895</v>
       </c>
     </row>
@@ -18222,7 +18236,7 @@
       <c r="L433" s="4">
         <v>14</v>
       </c>
-      <c r="M433" s="5">
+      <c r="M433" s="6">
         <v>885</v>
       </c>
     </row>
@@ -18264,7 +18278,7 @@
         <v>26</v>
       </c>
       <c r="M434" s="5">
-        <v>1.119</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.25">
@@ -18303,7 +18317,7 @@
         <v>7</v>
       </c>
       <c r="M435" s="5">
-        <v>1.2</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.25">
@@ -18344,7 +18358,7 @@
         <v>22</v>
       </c>
       <c r="M436" s="5">
-        <v>1.554</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.25">
@@ -18383,7 +18397,7 @@
         <v>17</v>
       </c>
       <c r="M437" s="5">
-        <v>1.48</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.25">
@@ -18424,7 +18438,7 @@
         <v>18</v>
       </c>
       <c r="M438" s="5">
-        <v>1.4790000000000001</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.25">
@@ -18463,7 +18477,7 @@
         <v>18</v>
       </c>
       <c r="M439" s="5">
-        <v>1.3660000000000001</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.25">
@@ -18504,7 +18518,7 @@
         <v>15</v>
       </c>
       <c r="M440" s="5">
-        <v>1.4219999999999999</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.25">
@@ -18543,7 +18557,7 @@
         <v>14</v>
       </c>
       <c r="M441" s="5">
-        <v>1.4259999999999999</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.25">
@@ -18583,7 +18597,7 @@
       <c r="L442" s="4">
         <v>15</v>
       </c>
-      <c r="M442" s="5">
+      <c r="M442" s="6">
         <v>889</v>
       </c>
     </row>
@@ -18622,7 +18636,7 @@
       <c r="L443" s="4">
         <v>15</v>
       </c>
-      <c r="M443" s="5">
+      <c r="M443" s="6">
         <v>936</v>
       </c>
     </row>
@@ -18664,7 +18678,7 @@
         <v>23</v>
       </c>
       <c r="M444" s="5">
-        <v>1.4279999999999999</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.25">
@@ -18703,46 +18717,46 @@
         <v>17</v>
       </c>
       <c r="M445" s="5">
-        <v>2.0510000000000002</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B446" s="6"/>
+      <c r="B446" s="7"/>
       <c r="C446" s="5">
-        <v>1.0880000000000001</v>
+        <v>1088</v>
       </c>
       <c r="D446" s="5">
-        <v>1.8260000000000001</v>
+        <v>1826</v>
       </c>
       <c r="E446" s="5">
-        <v>6.9029999999999996</v>
+        <v>6903</v>
       </c>
       <c r="F446" s="5">
-        <v>1.4910000000000001</v>
+        <v>1491</v>
       </c>
       <c r="G446" s="5">
-        <v>3.395</v>
+        <v>3395</v>
       </c>
       <c r="H446" s="5">
-        <v>6.8559999999999999</v>
+        <v>6856</v>
       </c>
       <c r="I446" s="5">
-        <v>3.4510000000000001</v>
-      </c>
-      <c r="J446" s="5">
+        <v>3451</v>
+      </c>
+      <c r="J446" s="6">
         <v>206</v>
       </c>
-      <c r="K446" s="5">
+      <c r="K446" s="6">
         <v>20</v>
       </c>
-      <c r="L446" s="5">
+      <c r="L446" s="6">
         <v>319</v>
       </c>
       <c r="M446" s="5">
-        <v>25.555</v>
+        <v>25555</v>
       </c>
     </row>
     <row r="447" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -18821,7 +18835,7 @@
       <c r="L448" s="4">
         <v>6</v>
       </c>
-      <c r="M448" s="5">
+      <c r="M448" s="6">
         <v>624</v>
       </c>
     </row>
@@ -18860,7 +18874,7 @@
       <c r="L449" s="4">
         <v>5</v>
       </c>
-      <c r="M449" s="5">
+      <c r="M449" s="6">
         <v>547</v>
       </c>
     </row>
@@ -18901,7 +18915,7 @@
       <c r="L450" s="4">
         <v>1</v>
       </c>
-      <c r="M450" s="5">
+      <c r="M450" s="6">
         <v>475</v>
       </c>
     </row>
@@ -18940,7 +18954,7 @@
       <c r="L451" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M451" s="5">
+      <c r="M451" s="6">
         <v>306</v>
       </c>
     </row>
@@ -18981,7 +18995,7 @@
       <c r="L452" s="4">
         <v>2</v>
       </c>
-      <c r="M452" s="5">
+      <c r="M452" s="6">
         <v>405</v>
       </c>
     </row>
@@ -19020,7 +19034,7 @@
       <c r="L453" s="4">
         <v>4</v>
       </c>
-      <c r="M453" s="5">
+      <c r="M453" s="6">
         <v>239</v>
       </c>
     </row>
@@ -19061,7 +19075,7 @@
       <c r="L454" s="4">
         <v>2</v>
       </c>
-      <c r="M454" s="5">
+      <c r="M454" s="6">
         <v>405</v>
       </c>
     </row>
@@ -19100,7 +19114,7 @@
       <c r="L455" s="4">
         <v>1</v>
       </c>
-      <c r="M455" s="5">
+      <c r="M455" s="6">
         <v>248</v>
       </c>
     </row>
@@ -19141,7 +19155,7 @@
       <c r="L456" s="4">
         <v>5</v>
       </c>
-      <c r="M456" s="5">
+      <c r="M456" s="6">
         <v>467</v>
       </c>
     </row>
@@ -19180,7 +19194,7 @@
       <c r="L457" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M457" s="5">
+      <c r="M457" s="6">
         <v>334</v>
       </c>
     </row>
@@ -19221,7 +19235,7 @@
       <c r="L458" s="4">
         <v>2</v>
       </c>
-      <c r="M458" s="5">
+      <c r="M458" s="6">
         <v>508</v>
       </c>
     </row>
@@ -19260,7 +19274,7 @@
       <c r="L459" s="4">
         <v>6</v>
       </c>
-      <c r="M459" s="5">
+      <c r="M459" s="6">
         <v>453</v>
       </c>
     </row>
@@ -19301,7 +19315,7 @@
       <c r="L460" s="4">
         <v>11</v>
       </c>
-      <c r="M460" s="5">
+      <c r="M460" s="6">
         <v>736</v>
       </c>
     </row>
@@ -19340,7 +19354,7 @@
       <c r="L461" s="4">
         <v>4</v>
       </c>
-      <c r="M461" s="5">
+      <c r="M461" s="6">
         <v>649</v>
       </c>
     </row>
@@ -19381,7 +19395,7 @@
       <c r="L462" s="4">
         <v>14</v>
       </c>
-      <c r="M462" s="5">
+      <c r="M462" s="6">
         <v>963</v>
       </c>
     </row>
@@ -19420,7 +19434,7 @@
       <c r="L463" s="4">
         <v>10</v>
       </c>
-      <c r="M463" s="5">
+      <c r="M463" s="6">
         <v>820</v>
       </c>
     </row>
@@ -19461,7 +19475,7 @@
       <c r="L464" s="4">
         <v>7</v>
       </c>
-      <c r="M464" s="5">
+      <c r="M464" s="6">
         <v>869</v>
       </c>
     </row>
@@ -19500,7 +19514,7 @@
       <c r="L465" s="4">
         <v>11</v>
       </c>
-      <c r="M465" s="5">
+      <c r="M465" s="6">
         <v>880</v>
       </c>
     </row>
@@ -19541,7 +19555,7 @@
       <c r="L466" s="4">
         <v>15</v>
       </c>
-      <c r="M466" s="5">
+      <c r="M466" s="6">
         <v>833</v>
       </c>
     </row>
@@ -19580,7 +19594,7 @@
       <c r="L467" s="4">
         <v>9</v>
       </c>
-      <c r="M467" s="5">
+      <c r="M467" s="6">
         <v>865</v>
       </c>
     </row>
@@ -19621,7 +19635,7 @@
       <c r="L468" s="4">
         <v>13</v>
       </c>
-      <c r="M468" s="5">
+      <c r="M468" s="6">
         <v>622</v>
       </c>
     </row>
@@ -19660,7 +19674,7 @@
       <c r="L469" s="4">
         <v>15</v>
       </c>
-      <c r="M469" s="5">
+      <c r="M469" s="6">
         <v>745</v>
       </c>
     </row>
@@ -19701,7 +19715,7 @@
       <c r="L470" s="4">
         <v>9</v>
       </c>
-      <c r="M470" s="5">
+      <c r="M470" s="6">
         <v>888</v>
       </c>
     </row>
@@ -19741,46 +19755,46 @@
         <v>14</v>
       </c>
       <c r="M471" s="5">
-        <v>1.242</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="472" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B472" s="6"/>
+      <c r="B472" s="7"/>
       <c r="C472" s="5">
-        <v>1.121</v>
+        <v>1121</v>
       </c>
       <c r="D472" s="5">
-        <v>1.5589999999999999</v>
+        <v>1559</v>
       </c>
       <c r="E472" s="5">
-        <v>4.8159999999999998</v>
+        <v>4816</v>
       </c>
       <c r="F472" s="5">
-        <v>1.1779999999999999</v>
+        <v>1178</v>
       </c>
       <c r="G472" s="5">
-        <v>1.7410000000000001</v>
+        <v>1741</v>
       </c>
       <c r="H472" s="5">
-        <v>3.1360000000000001</v>
+        <v>3136</v>
       </c>
       <c r="I472" s="5">
-        <v>1.3180000000000001</v>
-      </c>
-      <c r="J472" s="5">
+        <v>1318</v>
+      </c>
+      <c r="J472" s="6">
         <v>77</v>
       </c>
-      <c r="K472" s="5">
+      <c r="K472" s="6">
         <v>11</v>
       </c>
-      <c r="L472" s="5">
+      <c r="L472" s="6">
         <v>166</v>
       </c>
       <c r="M472" s="5">
-        <v>15.122999999999999</v>
+        <v>15123</v>
       </c>
     </row>
     <row r="473" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -19841,11 +19855,11 @@
       <c r="F474" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G474" s="4">
-        <v>1.3420000000000001</v>
-      </c>
-      <c r="H474" s="4">
-        <v>4.0030000000000001</v>
+      <c r="G474" s="9">
+        <v>1342</v>
+      </c>
+      <c r="H474" s="9">
+        <v>4003</v>
       </c>
       <c r="I474" s="4">
         <v>824</v>
@@ -19860,7 +19874,7 @@
         <v>53</v>
       </c>
       <c r="M474" s="5">
-        <v>6.2480000000000002</v>
+        <v>6248</v>
       </c>
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.25">
@@ -19880,14 +19894,14 @@
       <c r="F475" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G475" s="4">
-        <v>1.0609999999999999</v>
-      </c>
-      <c r="H475" s="4">
-        <v>4.1509999999999998</v>
-      </c>
-      <c r="I475" s="4">
-        <v>1.339</v>
+      <c r="G475" s="9">
+        <v>1061</v>
+      </c>
+      <c r="H475" s="9">
+        <v>4151</v>
+      </c>
+      <c r="I475" s="9">
+        <v>1339</v>
       </c>
       <c r="J475" s="4">
         <v>8</v>
@@ -19899,7 +19913,7 @@
         <v>10</v>
       </c>
       <c r="M475" s="5">
-        <v>6.5880000000000001</v>
+        <v>6588</v>
       </c>
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.25">
@@ -19921,14 +19935,14 @@
       <c r="F476" s="4">
         <v>21</v>
       </c>
-      <c r="G476" s="4">
-        <v>1.1850000000000001</v>
-      </c>
-      <c r="H476" s="4">
-        <v>1.387</v>
-      </c>
-      <c r="I476" s="4">
-        <v>1.534</v>
+      <c r="G476" s="9">
+        <v>1185</v>
+      </c>
+      <c r="H476" s="9">
+        <v>1387</v>
+      </c>
+      <c r="I476" s="9">
+        <v>1534</v>
       </c>
       <c r="J476" s="4">
         <v>84</v>
@@ -19940,7 +19954,7 @@
         <v>9</v>
       </c>
       <c r="M476" s="5">
-        <v>4.2549999999999999</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.25">
@@ -19960,14 +19974,14 @@
       <c r="F477" s="4">
         <v>30</v>
       </c>
-      <c r="G477" s="4">
-        <v>1.0880000000000001</v>
-      </c>
-      <c r="H477" s="4">
-        <v>1.1080000000000001</v>
-      </c>
-      <c r="I477" s="4">
-        <v>2.0339999999999998</v>
+      <c r="G477" s="9">
+        <v>1088</v>
+      </c>
+      <c r="H477" s="9">
+        <v>1108</v>
+      </c>
+      <c r="I477" s="9">
+        <v>2034</v>
       </c>
       <c r="J477" s="4">
         <v>124</v>
@@ -19979,7 +19993,7 @@
         <v>18</v>
       </c>
       <c r="M477" s="5">
-        <v>4.4800000000000004</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="478" spans="1:13" x14ac:dyDescent="0.25">
@@ -20004,11 +20018,11 @@
       <c r="G478" s="4">
         <v>520</v>
       </c>
-      <c r="H478" s="4">
-        <v>1.413</v>
-      </c>
-      <c r="I478" s="4">
-        <v>1.2490000000000001</v>
+      <c r="H478" s="9">
+        <v>1413</v>
+      </c>
+      <c r="I478" s="9">
+        <v>1249</v>
       </c>
       <c r="J478" s="4">
         <v>129</v>
@@ -20020,7 +20034,7 @@
         <v>14</v>
       </c>
       <c r="M478" s="5">
-        <v>4.0780000000000003</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.25">
@@ -20043,11 +20057,11 @@
       <c r="G479" s="4">
         <v>492</v>
       </c>
-      <c r="H479" s="4">
-        <v>1.163</v>
-      </c>
-      <c r="I479" s="4">
-        <v>1.44</v>
+      <c r="H479" s="9">
+        <v>1163</v>
+      </c>
+      <c r="I479" s="9">
+        <v>1440</v>
       </c>
       <c r="J479" s="4">
         <v>150</v>
@@ -20059,7 +20073,7 @@
         <v>28</v>
       </c>
       <c r="M479" s="5">
-        <v>4.3460000000000001</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="480" spans="1:13" x14ac:dyDescent="0.25">
@@ -20084,11 +20098,11 @@
       <c r="G480" s="4">
         <v>462</v>
       </c>
-      <c r="H480" s="4">
-        <v>1.5620000000000001</v>
-      </c>
-      <c r="I480" s="4">
-        <v>1.0760000000000001</v>
+      <c r="H480" s="9">
+        <v>1562</v>
+      </c>
+      <c r="I480" s="9">
+        <v>1076</v>
       </c>
       <c r="J480" s="4">
         <v>164</v>
@@ -20100,7 +20114,7 @@
         <v>26</v>
       </c>
       <c r="M480" s="5">
-        <v>4.468</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="481" spans="1:13" x14ac:dyDescent="0.25">
@@ -20123,8 +20137,8 @@
       <c r="G481" s="4">
         <v>512</v>
       </c>
-      <c r="H481" s="4">
-        <v>1.198</v>
+      <c r="H481" s="9">
+        <v>1198</v>
       </c>
       <c r="I481" s="4">
         <v>990</v>
@@ -20139,7 +20153,7 @@
         <v>19</v>
       </c>
       <c r="M481" s="5">
-        <v>4.5339999999999998</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.25">
@@ -20164,8 +20178,8 @@
       <c r="G482" s="4">
         <v>893</v>
       </c>
-      <c r="H482" s="4">
-        <v>1.633</v>
+      <c r="H482" s="9">
+        <v>1633</v>
       </c>
       <c r="I482" s="4">
         <v>850</v>
@@ -20180,7 +20194,7 @@
         <v>24</v>
       </c>
       <c r="M482" s="5">
-        <v>4.7640000000000002</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="483" spans="1:13" x14ac:dyDescent="0.25">
@@ -20194,8 +20208,8 @@
       <c r="D483" s="4">
         <v>91</v>
       </c>
-      <c r="E483" s="4">
-        <v>1.446</v>
+      <c r="E483" s="9">
+        <v>1446</v>
       </c>
       <c r="F483" s="4">
         <v>513</v>
@@ -20203,8 +20217,8 @@
       <c r="G483" s="4">
         <v>722</v>
       </c>
-      <c r="H483" s="4">
-        <v>1.155</v>
+      <c r="H483" s="9">
+        <v>1155</v>
       </c>
       <c r="I483" s="4">
         <v>771</v>
@@ -20219,7 +20233,7 @@
         <v>22</v>
       </c>
       <c r="M483" s="5">
-        <v>4.8819999999999997</v>
+        <v>4882</v>
       </c>
     </row>
     <row r="484" spans="1:13" x14ac:dyDescent="0.25">
@@ -20244,8 +20258,8 @@
       <c r="G484" s="4">
         <v>719</v>
       </c>
-      <c r="H484" s="4">
-        <v>1.4339999999999999</v>
+      <c r="H484" s="9">
+        <v>1434</v>
       </c>
       <c r="I484" s="4">
         <v>770</v>
@@ -20260,7 +20274,7 @@
         <v>21</v>
       </c>
       <c r="M484" s="5">
-        <v>4.4249999999999998</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="485" spans="1:13" x14ac:dyDescent="0.25">
@@ -20274,8 +20288,8 @@
       <c r="D485" s="4">
         <v>89</v>
       </c>
-      <c r="E485" s="4">
-        <v>1.623</v>
+      <c r="E485" s="9">
+        <v>1623</v>
       </c>
       <c r="F485" s="4">
         <v>502</v>
@@ -20299,7 +20313,7 @@
         <v>29</v>
       </c>
       <c r="M485" s="5">
-        <v>4.4459999999999997</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="486" spans="1:13" x14ac:dyDescent="0.25">
@@ -20324,8 +20338,8 @@
       <c r="G486" s="4">
         <v>818</v>
       </c>
-      <c r="H486" s="4">
-        <v>1.0389999999999999</v>
+      <c r="H486" s="9">
+        <v>1039</v>
       </c>
       <c r="I486" s="4">
         <v>554</v>
@@ -20340,7 +20354,7 @@
         <v>27</v>
       </c>
       <c r="M486" s="5">
-        <v>4.0140000000000002</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="487" spans="1:13" x14ac:dyDescent="0.25">
@@ -20354,8 +20368,8 @@
       <c r="D487" s="4">
         <v>191</v>
       </c>
-      <c r="E487" s="4">
-        <v>1.8740000000000001</v>
+      <c r="E487" s="9">
+        <v>1874</v>
       </c>
       <c r="F487" s="4">
         <v>410</v>
@@ -20379,7 +20393,7 @@
         <v>23</v>
       </c>
       <c r="M487" s="5">
-        <v>4.1319999999999997</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="488" spans="1:13" x14ac:dyDescent="0.25">
@@ -20395,8 +20409,8 @@
       <c r="D488" s="4">
         <v>29</v>
       </c>
-      <c r="E488" s="4">
-        <v>1.3680000000000001</v>
+      <c r="E488" s="9">
+        <v>1368</v>
       </c>
       <c r="F488" s="4">
         <v>635</v>
@@ -20420,7 +20434,7 @@
         <v>41</v>
       </c>
       <c r="M488" s="5">
-        <v>4.3609999999999998</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="489" spans="1:13" x14ac:dyDescent="0.25">
@@ -20434,8 +20448,8 @@
       <c r="D489" s="4">
         <v>403</v>
       </c>
-      <c r="E489" s="4">
-        <v>2.1739999999999999</v>
+      <c r="E489" s="9">
+        <v>2174</v>
       </c>
       <c r="F489" s="4">
         <v>305</v>
@@ -20459,7 +20473,7 @@
         <v>49</v>
       </c>
       <c r="M489" s="5">
-        <v>4.3220000000000001</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="490" spans="1:13" x14ac:dyDescent="0.25">
@@ -20475,8 +20489,8 @@
       <c r="D490" s="4">
         <v>53</v>
       </c>
-      <c r="E490" s="4">
-        <v>1.6619999999999999</v>
+      <c r="E490" s="9">
+        <v>1662</v>
       </c>
       <c r="F490" s="4">
         <v>374</v>
@@ -20500,7 +20514,7 @@
         <v>39</v>
       </c>
       <c r="M490" s="5">
-        <v>3.7690000000000001</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="491" spans="1:13" x14ac:dyDescent="0.25">
@@ -20514,8 +20528,8 @@
       <c r="D491" s="4">
         <v>657</v>
       </c>
-      <c r="E491" s="4">
-        <v>1.81</v>
+      <c r="E491" s="9">
+        <v>1810</v>
       </c>
       <c r="F491" s="4">
         <v>183</v>
@@ -20539,7 +20553,7 @@
         <v>30</v>
       </c>
       <c r="M491" s="5">
-        <v>3.8159999999999998</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="492" spans="1:13" x14ac:dyDescent="0.25">
@@ -20555,8 +20569,8 @@
       <c r="D492" s="4">
         <v>135</v>
       </c>
-      <c r="E492" s="4">
-        <v>1.6379999999999999</v>
+      <c r="E492" s="9">
+        <v>1638</v>
       </c>
       <c r="F492" s="4">
         <v>188</v>
@@ -20580,7 +20594,7 @@
         <v>30</v>
       </c>
       <c r="M492" s="5">
-        <v>3.1539999999999999</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="493" spans="1:13" x14ac:dyDescent="0.25">
@@ -20594,8 +20608,8 @@
       <c r="D493" s="4">
         <v>971</v>
       </c>
-      <c r="E493" s="4">
-        <v>1.1679999999999999</v>
+      <c r="E493" s="9">
+        <v>1168</v>
       </c>
       <c r="F493" s="4">
         <v>53</v>
@@ -20619,7 +20633,7 @@
         <v>29</v>
       </c>
       <c r="M493" s="5">
-        <v>3.3919999999999999</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="494" spans="1:13" x14ac:dyDescent="0.25">
@@ -20635,8 +20649,8 @@
       <c r="D494" s="4">
         <v>252</v>
       </c>
-      <c r="E494" s="4">
-        <v>1.3009999999999999</v>
+      <c r="E494" s="9">
+        <v>1301</v>
       </c>
       <c r="F494" s="4">
         <v>48</v>
@@ -20660,7 +20674,7 @@
         <v>35</v>
       </c>
       <c r="M494" s="5">
-        <v>2.327</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="495" spans="1:13" x14ac:dyDescent="0.25">
@@ -20699,7 +20713,7 @@
         <v>34</v>
       </c>
       <c r="M495" s="5">
-        <v>2.5070000000000001</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="496" spans="1:13" x14ac:dyDescent="0.25">
@@ -20715,8 +20729,8 @@
       <c r="D496" s="4">
         <v>711</v>
       </c>
-      <c r="E496" s="4">
-        <v>1.1040000000000001</v>
+      <c r="E496" s="9">
+        <v>1104</v>
       </c>
       <c r="F496" s="4">
         <v>18</v>
@@ -20740,7 +20754,7 @@
         <v>38</v>
       </c>
       <c r="M496" s="5">
-        <v>2.7</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="497" spans="1:13" x14ac:dyDescent="0.25">
@@ -20748,11 +20762,11 @@
       <c r="B497" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C497" s="4">
-        <v>2.2120000000000002</v>
-      </c>
-      <c r="D497" s="4">
-        <v>1.0249999999999999</v>
+      <c r="C497" s="9">
+        <v>2212</v>
+      </c>
+      <c r="D497" s="9">
+        <v>1025</v>
       </c>
       <c r="E497" s="4">
         <v>531</v>
@@ -20779,54 +20793,60 @@
         <v>48</v>
       </c>
       <c r="M497" s="5">
-        <v>3.9209999999999998</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="498" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B498" s="6"/>
+      <c r="B498" s="7"/>
       <c r="C498" s="5">
-        <v>5.4720000000000004</v>
+        <v>5472</v>
       </c>
       <c r="D498" s="5">
-        <v>5.7670000000000003</v>
+        <v>5767</v>
       </c>
       <c r="E498" s="5">
-        <v>21.824999999999999</v>
+        <v>21825</v>
       </c>
       <c r="F498" s="5">
-        <v>8.2439999999999998</v>
+        <v>8244</v>
       </c>
       <c r="G498" s="5">
-        <v>14.045999999999999</v>
+        <v>14046</v>
       </c>
       <c r="H498" s="5">
-        <v>26.199000000000002</v>
+        <v>26199</v>
       </c>
       <c r="I498" s="5">
-        <v>16.13</v>
+        <v>16130</v>
       </c>
       <c r="J498" s="5">
-        <v>1.409</v>
-      </c>
-      <c r="K498" s="5">
+        <v>1409</v>
+      </c>
+      <c r="K498" s="6">
         <v>141</v>
       </c>
-      <c r="L498" s="5">
+      <c r="L498" s="6">
         <v>696</v>
       </c>
       <c r="M498" s="5">
-        <v>99.929000000000002</v>
+        <v>99929</v>
+      </c>
+    </row>
+    <row r="499" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A499" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="500" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A500" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A135:B135"/>
     <mergeCell ref="A473:B473"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A317:B317"/>
@@ -20843,6 +20863,10 @@
     <mergeCell ref="A291:B291"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A135:B135"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
